--- a/base_e_calculadora_cafe - Analise Excel.xlsx
+++ b/base_e_calculadora_cafe - Analise Excel.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5670dbed6d0692/Cursos/Preditiva/Analista de Dados/Cases/11 Precificação de Café Pré-requisitos e Contexto de Negócio do Projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5670dbed6d0692/Documentos/Python Scripts/Análise e Precificacao do Café/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="11_FFC65FC02AC1EDE8AA170B2443BC1C694C03E001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A357B9E-9822-4873-983E-AE0CAE3B0767}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="11_FFC65FC02AC1EDE8AA170B2443BC1C694C03E001" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79C56F8D-7447-418C-A2DE-52A9703A27DF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Base!$A$1:$E$863</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadados!$A$1:$B$6</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">Calculadora!$M$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5301" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="103">
   <si>
     <t>Guatemala</t>
   </si>
@@ -310,6 +311,48 @@
   <si>
     <t>Probabilidade Premium</t>
   </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>A variável país é um forte preditor da variável 'café premium';</t>
+  </si>
+  <si>
+    <t>Podemos segmentar o mercado com base no país, já que essa variável é altamente informativa sobre quem produz café premium;</t>
+  </si>
+  <si>
+    <t>Contagem de Tipo_Variedade</t>
+  </si>
+  <si>
+    <t>A variável do tipo variedade também apresenta uma forte predição de café premium;</t>
+  </si>
+  <si>
+    <t>Podemos pressupor que o tipo de variedade para fabricação do café premium pode ter uma correlação com o país, ou seja, algumas variedades podem ter correlação com os cafés premium</t>
+  </si>
+  <si>
+    <t>Contagem de Tipo processamento</t>
+  </si>
+  <si>
+    <t>Faixa altitude</t>
+  </si>
+  <si>
+    <t>Varivel</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Fraco</t>
+  </si>
+  <si>
+    <t>Tip processamento</t>
+  </si>
+  <si>
+    <t>Muito Forte</t>
+  </si>
 </sst>
 </file>
 
@@ -317,9 +360,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +419,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,7 +508,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -484,6 +535,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,21 +557,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -515,25 +567,6 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -582,6 +615,25 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6726,7 +6778,493 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FDB8C67-7688-4852-B540-8973A9F6E903}" name="Tabela dinâmica4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Faixa de Altitude" colHeaderCaption="Qualidade">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBE2CC4A-C9BD-49BB-94A2-DC68D22A437C}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Tipo Processamento" colHeaderCaption="Qualidade">
+  <location ref="AC4:AF10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0" sortType="descending">
+      <items count="24">
+        <item x="1"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="4" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="20">
+        <item x="10"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Tipo processamento" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D59AF9F-3200-4164-A162-529FC3BEC362}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Tipo_Variedade" colHeaderCaption="Qualidade">
+  <location ref="P4:S25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0" sortType="descending">
+      <items count="24">
+        <item x="1"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="4" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="20">
+        <item x="10"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="4" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Tipo_Variedade" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F12AC28-EF60-4A5F-9936-9FFB98D4736A}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Paises" colHeaderCaption="Qualidade">
+  <location ref="C4:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="24">
+        <item x="1"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Tipo_Qualidade" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FDB8C67-7688-4852-B540-8973A9F6E903}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Faixa de Altitude" colHeaderCaption="Qualidade">
   <location ref="AP4:AS13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0" sortType="descending">
@@ -6889,491 +7427,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBE2CC4A-C9BD-49BB-94A2-DC68D22A437C}" name="Tabela dinâmica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Tipo Processamento" colHeaderCaption="Qualidade">
-  <location ref="AC4:AF10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0" sortType="descending">
-      <items count="24">
-        <item x="1"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="19"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="4" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="20">
-        <item x="10"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="5">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Tipo_Qualidade" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D59AF9F-3200-4164-A162-529FC3BEC362}" name="Tabela dinâmica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Tipo_Variedade" colHeaderCaption="Qualidade">
-  <location ref="P4:S25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0" sortType="descending">
-      <items count="24">
-        <item x="1"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="19"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="4" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="20">
-        <item x="10"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="18"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Tipo_Qualidade" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F12AC28-EF60-4A5F-9936-9FFB98D4736A}" name="Tabela dinâmica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Paises" colHeaderCaption="Qualidade">
-  <location ref="C4:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="24">
-        <item x="1"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="19"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="24">
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Tipo_Qualidade" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64B8D577-2B56-4A99-86AC-2BE006334436}" name="Tabela dinâmica6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64B8D577-2B56-4A99-86AC-2BE006334436}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="C4:H176" firstHeaderRow="1" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8108,6 +8163,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E194E02-75A2-411C-B8C0-C8F07389D98E}" name="Tabela3" displayName="Tabela3" ref="R35:T39" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R36:S39">
+    <sortCondition descending="1" ref="S38:S39"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0D38CCD9-6CCD-4254-999C-886F41AA052E}" name="Varivel"/>
+    <tableColumn id="2" xr3:uid="{5D85CA0D-A8B3-4313-9788-17A8EA4BB047}" name="IV"/>
+    <tableColumn id="3" xr3:uid="{616F0F7B-225F-45B7-B1F8-F94C63AFC678}" name="Descrição"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3C1B096-D75F-43F5-8FD6-8709563ACCC6}" name="Tabela1" displayName="Tabela1" ref="L6:S177" totalsRowShown="0">
   <autoFilter ref="L6:S177" xr:uid="{A3C1B096-D75F-43F5-8FD6-8709563ACCC6}"/>
   <tableColumns count="8">
@@ -8120,7 +8189,7 @@
     <tableColumn id="5" xr3:uid="{12173E66-B81A-4F96-AFC7-C2295DE98ABE}" name="Normal"/>
     <tableColumn id="6" xr3:uid="{D5D2A291-DE45-428E-839A-221A0703B661}" name="Premium"/>
     <tableColumn id="7" xr3:uid="{1D7561E1-9293-4CCF-8032-72B8A6EFF456}" name="Total Geral"/>
-    <tableColumn id="8" xr3:uid="{94AC4682-9DA0-44E1-AE4F-5EBB29137FF1}" name="Probabilidade Premium" dataDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{94AC4682-9DA0-44E1-AE4F-5EBB29137FF1}" name="Probabilidade Premium" dataDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Q7/R7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8415,11 +8484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97154073-AC16-BF49-876D-04E4FCA3E426}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8460,7 +8528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>54</v>
       </c>
@@ -8477,6 +8545,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B6" xr:uid="{97154073-AC16-BF49-876D-04E4FCA3E426}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Pais_Origem"/>
+        <filter val="Tipo_Processamento"/>
+        <filter val="Tipo_Qualidade"/>
+        <filter val="Tipo_Variedade"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -23180,10 +23258,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="C4:AW30"/>
+  <dimension ref="A4:AW40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23195,7 +23273,9 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -23212,33 +23292,33 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="5" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
@@ -23250,19 +23330,19 @@
       <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="Q5" t="s">
@@ -23274,19 +23354,19 @@
       <c r="S5" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC5" s="10" t="s">
         <v>61</v>
       </c>
       <c r="AD5" t="s">
@@ -23298,19 +23378,19 @@
       <c r="AF5" t="s">
         <v>78</v>
       </c>
-      <c r="AG5" s="16" t="s">
+      <c r="AG5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AH5" s="16" t="s">
+      <c r="AH5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AI5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AJ5" s="18" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AP5" s="13" t="s">
+      <c r="AP5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="AQ5" t="s">
@@ -23322,816 +23402,816 @@
       <c r="AS5" t="s">
         <v>78</v>
       </c>
-      <c r="AT5" s="16" t="s">
+      <c r="AT5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AU5" s="16" t="s">
+      <c r="AU5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AV5" s="16" t="s">
+      <c r="AV5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AW5" s="18" t="s">
+      <c r="AW5" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6">
         <v>164</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6">
         <v>59</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6">
         <v>223</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f>D6/$D$29</f>
         <v>0.36936936936936937</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <f>E6/$E$29</f>
         <v>0.14114832535885166</v>
       </c>
-      <c r="I6" s="17">
-        <f>E6/F6</f>
+      <c r="I6" s="13">
+        <f t="shared" ref="I6:I28" si="0">E6/F6</f>
         <v>0.26457399103139012</v>
       </c>
-      <c r="J6" s="19">
-        <f t="shared" ref="J6:J21" si="0">IFERROR( (H6-G6)*LN(H6/G6), 0)</f>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:J21" si="1">IFERROR( (H6-G6)*LN(H6/G6), 0)</f>
         <v>0.21954541592574234</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>76</v>
-      </c>
-      <c r="R6" s="15">
-        <v>144</v>
-      </c>
-      <c r="S6" s="15">
-        <v>220</v>
-      </c>
-      <c r="T6" s="17">
+      <c r="P6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>135</v>
+      </c>
+      <c r="R6" s="21">
+        <v>57</v>
+      </c>
+      <c r="S6" s="21">
+        <v>192</v>
+      </c>
+      <c r="T6" s="13">
         <f>Q6/$Q$25</f>
-        <v>0.17117117117117117</v>
-      </c>
-      <c r="U6" s="17">
+        <v>0.30405405405405406</v>
+      </c>
+      <c r="U6" s="13">
         <f>R6/$R$25</f>
-        <v>0.34449760765550241</v>
-      </c>
-      <c r="V6" s="17">
-        <f>R6/S6</f>
-        <v>0.65454545454545454</v>
-      </c>
-      <c r="W6" s="19">
-        <f t="shared" ref="W6:W21" si="1">IFERROR( (U6-T6)*LN(U6/T6), 0)</f>
-        <v>0.12122851164540246</v>
-      </c>
-      <c r="AC6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD6" s="15">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="V6" s="13">
+        <f t="shared" ref="V6:V24" si="2">R6/S6</f>
+        <v>0.296875</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" ref="W6:W21" si="3">IFERROR( (U6-T6)*LN(U6/T6), 0)</f>
+        <v>0.13446765597673233</v>
+      </c>
+      <c r="AC6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6">
         <v>358</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6">
         <v>298</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6">
         <v>656</v>
       </c>
-      <c r="AG6" s="17">
-        <f t="shared" ref="AG6:AG8" si="2">AD6/$AD$10</f>
+      <c r="AG6" s="13">
+        <f t="shared" ref="AG6:AG8" si="4">AD6/$AD$10</f>
         <v>0.80630630630630629</v>
       </c>
-      <c r="AH6" s="17">
+      <c r="AH6" s="13">
         <f>AE6/$AE$10</f>
         <v>0.71291866028708128</v>
       </c>
-      <c r="AI6" s="17">
+      <c r="AI6" s="13">
         <f>AE6/AF6</f>
         <v>0.45426829268292684</v>
       </c>
-      <c r="AJ6" s="19">
-        <f t="shared" ref="AJ6:AJ21" si="3">IFERROR( (AH6-AG6)*LN(AH6/AG6), 0)</f>
+      <c r="AJ6" s="15">
+        <f t="shared" ref="AJ6:AJ9" si="5">IFERROR( (AH6-AG6)*LN(AH6/AG6), 0)</f>
         <v>1.1495680226674783E-2</v>
       </c>
-      <c r="AP6" s="14" t="s">
+      <c r="AP6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AQ6" s="15">
+      <c r="AQ6">
         <v>123</v>
       </c>
-      <c r="AR6" s="15">
+      <c r="AR6">
         <v>81</v>
       </c>
-      <c r="AS6" s="15">
+      <c r="AS6">
         <v>204</v>
       </c>
-      <c r="AT6" s="17">
+      <c r="AT6" s="13">
         <f>AQ6/$AQ$13</f>
         <v>0.27702702702702703</v>
       </c>
-      <c r="AU6" s="17">
+      <c r="AU6" s="13">
         <f>AR6/$AR$13</f>
         <v>0.19377990430622011</v>
       </c>
-      <c r="AV6" s="17">
+      <c r="AV6" s="13">
         <f>AR6/AS6</f>
         <v>0.39705882352941174</v>
       </c>
-      <c r="AW6" s="19">
-        <f t="shared" ref="AW6:AW13" si="4">IFERROR( (AU6-AT6)*LN(AU6/AT6), 0)</f>
+      <c r="AW6" s="15">
+        <f t="shared" ref="AW6:AW12" si="6">IFERROR( (AU6-AT6)*LN(AU6/AT6), 0)</f>
         <v>2.9751861576707419E-2</v>
       </c>
     </row>
     <row r="7" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7">
         <v>68</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7">
         <v>72</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7">
         <v>140</v>
       </c>
-      <c r="G7" s="17">
-        <f t="shared" ref="G7:G28" si="5">D7/$D$29</f>
+      <c r="G7" s="13">
+        <f t="shared" ref="G7:G28" si="7">D7/$D$29</f>
         <v>0.15315315315315314</v>
       </c>
-      <c r="H7" s="17">
-        <f t="shared" ref="H7:H28" si="6">E7/$E$29</f>
+      <c r="H7" s="13">
+        <f t="shared" ref="H7:H28" si="8">E7/$E$29</f>
         <v>0.17224880382775121</v>
       </c>
-      <c r="I7" s="17">
-        <f>E7/F7</f>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="J7" s="19">
-        <f t="shared" si="0"/>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
         <v>2.2437684331266809E-3</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="21">
         <v>97</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="21">
         <v>96</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="21">
         <v>193</v>
       </c>
-      <c r="T7" s="17">
-        <f t="shared" ref="T7:T24" si="7">Q7/$Q$25</f>
+      <c r="T7" s="13">
+        <f t="shared" ref="T7:T24" si="9">Q7/$Q$25</f>
         <v>0.21846846846846846</v>
       </c>
-      <c r="U7" s="17">
-        <f t="shared" ref="U7:U24" si="8">R7/$R$25</f>
+      <c r="U7" s="13">
+        <f t="shared" ref="U7:U24" si="10">R7/$R$25</f>
         <v>0.22966507177033493</v>
       </c>
-      <c r="V7" s="17">
-        <f>R7/S7</f>
+      <c r="V7" s="13">
+        <f t="shared" si="2"/>
         <v>0.49740932642487046</v>
       </c>
-      <c r="W7" s="19">
-        <f t="shared" si="1"/>
+      <c r="W7" s="15">
+        <f t="shared" si="3"/>
         <v>5.5961007202817866E-4</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AC7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD7">
         <v>59</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE7">
         <v>88</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AF7">
         <v>147</v>
       </c>
-      <c r="AG7" s="17">
-        <f t="shared" si="2"/>
+      <c r="AG7" s="13">
+        <f t="shared" si="4"/>
         <v>0.13288288288288289</v>
       </c>
-      <c r="AH7" s="17">
-        <f t="shared" ref="AH7:AH9" si="9">AE7/$AE$10</f>
+      <c r="AH7" s="13">
+        <f t="shared" ref="AH7:AH9" si="11">AE7/$AE$10</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="AI7" s="17">
+      <c r="AI7" s="13">
         <f>AE7/AF7</f>
         <v>0.59863945578231292</v>
       </c>
-      <c r="AJ7" s="19">
-        <f t="shared" si="3"/>
+      <c r="AJ7" s="15">
+        <f t="shared" si="5"/>
         <v>3.5727043363486331E-2</v>
       </c>
-      <c r="AP7" s="14" t="s">
+      <c r="AP7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AQ7" s="15">
+      <c r="AQ7">
         <v>118</v>
       </c>
-      <c r="AR7" s="15">
+      <c r="AR7">
         <v>85</v>
       </c>
-      <c r="AS7" s="15">
+      <c r="AS7">
         <v>203</v>
       </c>
-      <c r="AT7" s="17">
-        <f t="shared" ref="AT7:AT12" si="10">AQ7/$AQ$13</f>
+      <c r="AT7" s="13">
+        <f t="shared" ref="AT7:AT12" si="12">AQ7/$AQ$13</f>
         <v>0.26576576576576577</v>
       </c>
-      <c r="AU7" s="17">
-        <f t="shared" ref="AU7:AU12" si="11">AR7/$AR$13</f>
+      <c r="AU7" s="13">
+        <f t="shared" ref="AU7:AU12" si="13">AR7/$AR$13</f>
         <v>0.20334928229665072</v>
       </c>
-      <c r="AV7" s="17">
+      <c r="AV7" s="13">
         <f>AR7/AS7</f>
         <v>0.41871921182266009</v>
       </c>
-      <c r="AW7" s="19">
+      <c r="AW7" s="15">
+        <f t="shared" si="6"/>
+        <v>1.6708283319207293E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>117</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="7"/>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="8"/>
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.34649016878539585</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>76</v>
+      </c>
+      <c r="R8" s="21">
+        <v>144</v>
+      </c>
+      <c r="S8" s="21">
+        <v>220</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" si="9"/>
+        <v>0.17117117117117117</v>
+      </c>
+      <c r="U8" s="13">
+        <f t="shared" si="10"/>
+        <v>0.34449760765550241</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.65454545454545454</v>
+      </c>
+      <c r="W8" s="15">
+        <f t="shared" si="3"/>
+        <v>0.12122851164540246</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8">
+        <v>24</v>
+      </c>
+      <c r="AE8">
+        <v>26</v>
+      </c>
+      <c r="AF8">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="13">
         <f t="shared" si="4"/>
-        <v>1.6708283319207293E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15">
-        <v>99</v>
-      </c>
-      <c r="F8" s="15">
-        <v>117</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="5"/>
-        <v>4.0540540540540543E-2</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="6"/>
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="I8" s="17">
-        <f>E8/F8</f>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="J8" s="19">
-        <f t="shared" si="0"/>
-        <v>0.34649016878539585</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>135</v>
-      </c>
-      <c r="R8" s="15">
-        <v>57</v>
-      </c>
-      <c r="S8" s="15">
-        <v>192</v>
-      </c>
-      <c r="T8" s="17">
-        <f t="shared" si="7"/>
-        <v>0.30405405405405406</v>
-      </c>
-      <c r="U8" s="17">
-        <f t="shared" si="8"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="V8" s="17">
-        <f>R8/S8</f>
-        <v>0.296875</v>
-      </c>
-      <c r="W8" s="19">
-        <f t="shared" si="1"/>
-        <v>0.13446765597673233</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>24</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>26</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>50</v>
-      </c>
-      <c r="AG8" s="17">
-        <f t="shared" si="2"/>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="AH8" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH8" s="13">
+        <f t="shared" si="11"/>
         <v>6.2200956937799042E-2</v>
       </c>
-      <c r="AI8" s="17">
+      <c r="AI8" s="13">
         <f>AE8/AF8</f>
         <v>0.52</v>
       </c>
-      <c r="AJ8" s="19">
-        <f t="shared" si="3"/>
+      <c r="AJ8" s="15">
+        <f t="shared" si="5"/>
         <v>1.1437097850256425E-3</v>
       </c>
-      <c r="AP8" s="14" t="s">
+      <c r="AP8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AQ8" s="15">
+      <c r="AQ8">
         <v>64</v>
       </c>
-      <c r="AR8" s="15">
+      <c r="AR8">
         <v>80</v>
       </c>
-      <c r="AS8" s="15">
+      <c r="AS8">
         <v>144</v>
       </c>
-      <c r="AT8" s="17">
-        <f t="shared" si="10"/>
+      <c r="AT8" s="13">
+        <f t="shared" si="12"/>
         <v>0.14414414414414414</v>
       </c>
-      <c r="AU8" s="17">
-        <f t="shared" si="11"/>
+      <c r="AU8" s="13">
+        <f t="shared" si="13"/>
         <v>0.19138755980861244</v>
       </c>
-      <c r="AV8" s="17">
+      <c r="AV8" s="13">
         <f>AR8/AS8</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AW8" s="19">
-        <f t="shared" si="4"/>
+      <c r="AW8" s="15">
+        <f t="shared" si="6"/>
         <v>1.3392879116296361E-2</v>
       </c>
     </row>
     <row r="9" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>40</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9">
         <v>44</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9">
         <v>84</v>
       </c>
-      <c r="G9" s="17">
-        <f t="shared" si="5"/>
+      <c r="G9" s="13">
+        <f t="shared" si="7"/>
         <v>9.0090090090090086E-2</v>
       </c>
-      <c r="H9" s="17">
-        <f t="shared" si="6"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="I9" s="17">
-        <f>E9/F9</f>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="J9" s="19">
-        <f t="shared" si="0"/>
-        <v>2.3617382222747211E-3</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>45</v>
-      </c>
-      <c r="R9" s="15">
-        <v>44</v>
-      </c>
-      <c r="S9" s="15">
-        <v>89</v>
-      </c>
-      <c r="T9" s="17">
-        <f t="shared" si="7"/>
-        <v>0.10135135135135136</v>
-      </c>
-      <c r="U9" s="17">
+      <c r="H9" s="13">
         <f t="shared" si="8"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="V9" s="17">
-        <f>R9/S9</f>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>2.3617382222747211E-3</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>45</v>
+      </c>
+      <c r="R9" s="21">
+        <v>44</v>
+      </c>
+      <c r="S9" s="21">
+        <v>89</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="9"/>
+        <v>0.10135135135135136</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="10"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="2"/>
         <v>0.4943820224719101</v>
       </c>
-      <c r="W9" s="19">
-        <f t="shared" si="1"/>
+      <c r="W9" s="15">
+        <f t="shared" si="3"/>
         <v>1.4814118584975319E-4</v>
       </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AC9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AD9">
         <v>3</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9">
         <v>6</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AF9">
         <v>9</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="13">
         <f>AD9/$AD$10</f>
         <v>6.7567567567567571E-3</v>
       </c>
-      <c r="AH9" s="17">
-        <f t="shared" si="9"/>
+      <c r="AH9" s="13">
+        <f t="shared" si="11"/>
         <v>1.4354066985645933E-2</v>
       </c>
-      <c r="AI9" s="17">
+      <c r="AI9" s="13">
         <f>AE9/AF9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AJ9" s="19">
-        <f t="shared" si="3"/>
+      <c r="AJ9" s="15">
+        <f t="shared" si="5"/>
         <v>5.7244996430829637E-3</v>
       </c>
-      <c r="AP9" s="14" t="s">
+      <c r="AP9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ9" s="15">
+      <c r="AQ9">
         <v>41</v>
       </c>
-      <c r="AR9" s="15">
+      <c r="AR9">
         <v>102</v>
       </c>
-      <c r="AS9" s="15">
+      <c r="AS9">
         <v>143</v>
       </c>
-      <c r="AT9" s="17">
-        <f t="shared" si="10"/>
+      <c r="AT9" s="13">
+        <f t="shared" si="12"/>
         <v>9.2342342342342343E-2</v>
       </c>
-      <c r="AU9" s="17">
-        <f t="shared" si="11"/>
+      <c r="AU9" s="13">
+        <f t="shared" si="13"/>
         <v>0.24401913875598086</v>
       </c>
-      <c r="AV9" s="17">
+      <c r="AV9" s="13">
         <f>AR9/AS9</f>
         <v>0.71328671328671334</v>
       </c>
-      <c r="AW9" s="19">
-        <f t="shared" si="4"/>
+      <c r="AW9" s="15">
+        <f t="shared" si="6"/>
         <v>0.14739099812018405</v>
       </c>
     </row>
     <row r="10" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10">
         <v>55</v>
       </c>
-      <c r="G10" s="17">
-        <f t="shared" si="5"/>
+      <c r="G10" s="13">
+        <f t="shared" si="7"/>
         <v>7.2072072072072071E-2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
+        <f t="shared" si="8"/>
+        <v>5.5023923444976079E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6012707133458045E-3</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>41</v>
+      </c>
+      <c r="R10" s="21">
+        <v>25</v>
+      </c>
+      <c r="S10" s="21">
+        <v>66</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="9"/>
+        <v>9.2342342342342343E-2</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="10"/>
+        <v>5.9808612440191387E-2</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4131126825645069E-2</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD10">
+        <v>444</v>
+      </c>
+      <c r="AE10">
+        <v>418</v>
+      </c>
+      <c r="AF10">
+        <v>862</v>
+      </c>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="15"/>
+      <c r="AP10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ10">
+        <v>47</v>
+      </c>
+      <c r="AR10">
+        <v>35</v>
+      </c>
+      <c r="AS10">
+        <v>82</v>
+      </c>
+      <c r="AT10" s="13">
+        <f t="shared" si="12"/>
+        <v>0.10585585585585586</v>
+      </c>
+      <c r="AU10" s="13">
+        <f t="shared" si="13"/>
+        <v>8.3732057416267949E-2</v>
+      </c>
+      <c r="AV10" s="13">
+        <f t="shared" ref="AV10:AV12" si="14">AR10/AS10</f>
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="AW10" s="15">
         <f t="shared" si="6"/>
-        <v>5.5023923444976079E-2</v>
-      </c>
-      <c r="I10" s="17">
-        <f>E10/F10</f>
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="J10" s="19">
+        <v>5.1870663646380348E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076555E-2</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>4.6012707133458045E-3</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="15">
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>7.4142928138621944E-2</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>19</v>
+      </c>
+      <c r="R11" s="21">
+        <v>6</v>
+      </c>
+      <c r="S11" s="21">
+        <v>25</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="9"/>
+        <v>4.2792792792792793E-2</v>
+      </c>
+      <c r="U11" s="13">
+        <f t="shared" si="10"/>
+        <v>1.4354066985645933E-2</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="3"/>
+        <v>3.106465480087062E-2</v>
+      </c>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="15"/>
+      <c r="AP11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ11">
+        <v>27</v>
+      </c>
+      <c r="AR11">
+        <v>21</v>
+      </c>
+      <c r="AS11">
+        <v>48</v>
+      </c>
+      <c r="AT11" s="13">
+        <f t="shared" si="12"/>
+        <v>6.0810810810810814E-2</v>
+      </c>
+      <c r="AU11" s="13">
+        <f t="shared" si="13"/>
+        <v>5.0239234449760764E-2</v>
+      </c>
+      <c r="AV11" s="13">
+        <f t="shared" si="14"/>
+        <v>0.4375</v>
+      </c>
+      <c r="AW11" s="15">
+        <f t="shared" si="6"/>
+        <v>2.0188676635236702E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
         <v>41</v>
       </c>
-      <c r="R10" s="15">
-        <v>25</v>
-      </c>
-      <c r="S10" s="15">
-        <v>66</v>
-      </c>
-      <c r="T10" s="17">
+      <c r="G12" s="13">
         <f t="shared" si="7"/>
-        <v>9.2342342342342343E-2</v>
-      </c>
-      <c r="U10" s="17">
+        <v>3.6036036036036036E-2</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="8"/>
         <v>5.9808612440191387E-2</v>
       </c>
-      <c r="V10" s="17">
-        <f>R10/S10</f>
-        <v>0.37878787878787878</v>
-      </c>
-      <c r="W10" s="19">
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>1.4131126825645069E-2</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="15">
-        <v>444</v>
-      </c>
-      <c r="AE10" s="15">
-        <v>418</v>
-      </c>
-      <c r="AF10" s="15">
-        <v>862</v>
-      </c>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="19"/>
-      <c r="AP10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ10" s="15">
-        <v>47</v>
-      </c>
-      <c r="AR10" s="15">
+        <v>1.204390591161439E-2</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AS10" s="15">
-        <v>82</v>
-      </c>
-      <c r="AT10" s="17">
+      <c r="Q12" s="21">
+        <v>7</v>
+      </c>
+      <c r="R12" s="21">
+        <v>5</v>
+      </c>
+      <c r="S12" s="21">
+        <v>12</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="9"/>
+        <v>1.5765765765765764E-2</v>
+      </c>
+      <c r="U12" s="13">
         <f t="shared" si="10"/>
-        <v>0.10585585585585586</v>
-      </c>
-      <c r="AU10" s="17">
-        <f t="shared" si="11"/>
-        <v>8.3732057416267949E-2</v>
-      </c>
-      <c r="AV10" s="17">
-        <f t="shared" ref="AV10:AV12" si="12">AR10/AS10</f>
-        <v>0.42682926829268292</v>
-      </c>
-      <c r="AW10" s="19">
-        <f t="shared" si="4"/>
-        <v>5.1870663646380348E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
+        <v>1.1961722488038277E-2</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="3"/>
+        <v>1.050407072179315E-3</v>
+      </c>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="15"/>
+      <c r="AP12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ12">
+        <v>24</v>
+      </c>
+      <c r="AR12">
+        <v>14</v>
+      </c>
+      <c r="AS12">
+        <v>38</v>
+      </c>
+      <c r="AT12" s="13">
+        <f t="shared" si="12"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="AU12" s="13">
+        <f t="shared" si="13"/>
+        <v>3.3492822966507178E-2</v>
+      </c>
+      <c r="AV12" s="13">
+        <f t="shared" si="14"/>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="AW12" s="15">
+        <f t="shared" si="6"/>
+        <v>9.8417025683705892E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>34</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="7"/>
+        <v>4.5045045045045043E-2</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="8"/>
+        <v>3.3492822966507178E-2</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4232909246251428E-3</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>7</v>
+      </c>
+      <c r="R13" s="21">
         <v>10</v>
       </c>
-      <c r="D11" s="15">
-        <v>37</v>
-      </c>
-      <c r="E11" s="15">
-        <v>10</v>
-      </c>
-      <c r="F11" s="15">
-        <v>47</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="5"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="6"/>
+      <c r="S13" s="21">
+        <v>17</v>
+      </c>
+      <c r="T13" s="13">
+        <f t="shared" si="9"/>
+        <v>1.5765765765765764E-2</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" si="10"/>
         <v>2.3923444976076555E-2</v>
       </c>
-      <c r="I11" s="17">
-        <f>E11/F11</f>
-        <v>0.21276595744680851</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" si="0"/>
-        <v>7.4142928138621944E-2</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>19</v>
-      </c>
-      <c r="R11" s="15">
-        <v>6</v>
-      </c>
-      <c r="S11" s="15">
-        <v>25</v>
-      </c>
-      <c r="T11" s="17">
-        <f t="shared" si="7"/>
-        <v>4.2792792792792793E-2</v>
-      </c>
-      <c r="U11" s="17">
-        <f t="shared" si="8"/>
-        <v>1.4354066985645933E-2</v>
-      </c>
-      <c r="V11" s="17">
-        <f>R11/S11</f>
-        <v>0.24</v>
-      </c>
-      <c r="W11" s="19">
-        <f t="shared" si="1"/>
-        <v>3.106465480087062E-2</v>
-      </c>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="19"/>
-      <c r="AP11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ11" s="15">
-        <v>27</v>
-      </c>
-      <c r="AR11" s="15">
-        <v>21</v>
-      </c>
-      <c r="AS11" s="15">
-        <v>48</v>
-      </c>
-      <c r="AT11" s="17">
-        <f t="shared" si="10"/>
-        <v>6.0810810810810814E-2</v>
-      </c>
-      <c r="AU11" s="17">
-        <f t="shared" si="11"/>
-        <v>5.0239234449760764E-2</v>
-      </c>
-      <c r="AV11" s="17">
-        <f t="shared" si="12"/>
-        <v>0.4375</v>
-      </c>
-      <c r="AW11" s="19">
-        <f t="shared" si="4"/>
-        <v>2.0188676635236702E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="15">
-        <v>16</v>
-      </c>
-      <c r="E12" s="15">
-        <v>25</v>
-      </c>
-      <c r="F12" s="15">
-        <v>41</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="5"/>
-        <v>3.6036036036036036E-2</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="6"/>
-        <v>5.9808612440191387E-2</v>
-      </c>
-      <c r="I12" s="17">
-        <f>E12/F12</f>
-        <v>0.6097560975609756</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" si="0"/>
-        <v>1.204390591161439E-2</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>4</v>
-      </c>
-      <c r="R12" s="15">
-        <v>15</v>
-      </c>
-      <c r="S12" s="15">
-        <v>19</v>
-      </c>
-      <c r="T12" s="17">
-        <f t="shared" si="7"/>
-        <v>9.0090090090090089E-3</v>
-      </c>
-      <c r="U12" s="17">
-        <f t="shared" si="8"/>
-        <v>3.5885167464114832E-2</v>
-      </c>
-      <c r="V12" s="17">
-        <f>R12/S12</f>
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="W12" s="19">
-        <f t="shared" si="1"/>
-        <v>3.7145510915396474E-2</v>
-      </c>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="19"/>
-      <c r="AP12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ12" s="15">
-        <v>24</v>
-      </c>
-      <c r="AR12" s="15">
-        <v>14</v>
-      </c>
-      <c r="AS12" s="15">
-        <v>38</v>
-      </c>
-      <c r="AT12" s="17">
-        <f t="shared" si="10"/>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="AU12" s="17">
-        <f t="shared" si="11"/>
-        <v>3.3492822966507178E-2</v>
-      </c>
-      <c r="AV12" s="17">
-        <f t="shared" si="12"/>
-        <v>0.36842105263157893</v>
-      </c>
-      <c r="AW12" s="19">
-        <f t="shared" si="4"/>
-        <v>9.8417025683705892E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="15">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15">
-        <v>14</v>
-      </c>
-      <c r="F13" s="15">
-        <v>34</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="5"/>
-        <v>4.5045045045045043E-2</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="6"/>
-        <v>3.3492822966507178E-2</v>
-      </c>
-      <c r="I13" s="17">
-        <f>E13/F13</f>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>3.4232909246251428E-3</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>7</v>
-      </c>
-      <c r="R13" s="15">
-        <v>10</v>
-      </c>
-      <c r="S13" s="15">
-        <v>17</v>
-      </c>
-      <c r="T13" s="17">
-        <f t="shared" si="7"/>
-        <v>1.5765765765765764E-2</v>
-      </c>
-      <c r="U13" s="17">
-        <f t="shared" si="8"/>
-        <v>2.3923444976076555E-2</v>
-      </c>
-      <c r="V13" s="17">
-        <f>R13/S13</f>
+      <c r="V13" s="13">
+        <f t="shared" si="2"/>
         <v>0.58823529411764708</v>
       </c>
-      <c r="W13" s="19">
-        <f t="shared" si="1"/>
+      <c r="W13" s="15">
+        <f t="shared" si="3"/>
         <v>3.4018996713390034E-3</v>
       </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
       <c r="AI13" t="s">
         <v>86</v>
       </c>
@@ -24139,869 +24219,864 @@
         <f>SUM(AJ6:AJ10)</f>
         <v>5.409093301826972E-2</v>
       </c>
-      <c r="AP13" s="14" t="s">
+      <c r="AP13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AQ13" s="15">
+      <c r="AQ13">
         <v>444</v>
       </c>
-      <c r="AR13" s="15">
+      <c r="AR13">
         <v>418</v>
       </c>
-      <c r="AS13" s="15">
+      <c r="AS13">
         <v>862</v>
       </c>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AW13" s="19"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AW13" s="15"/>
     </row>
     <row r="14" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="G14" s="17">
-        <f t="shared" si="5"/>
+      <c r="G14" s="13">
+        <f t="shared" si="7"/>
         <v>1.1261261261261261E-2</v>
       </c>
-      <c r="H14" s="17">
-        <f t="shared" si="6"/>
+      <c r="H14" s="13">
+        <f t="shared" si="8"/>
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="I14" s="17">
-        <f>E14/F14</f>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
         <v>0.6875</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>1.277829092751432E-2</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>7</v>
+      </c>
+      <c r="R14" s="21">
+        <v>4</v>
+      </c>
+      <c r="S14" s="21">
+        <v>11</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="9"/>
+        <v>1.5765765765765764E-2</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="10"/>
+        <v>9.5693779904306216E-3</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="2"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0936869947634986E-3</v>
+      </c>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="15"/>
+    </row>
+    <row r="15" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="7"/>
+        <v>1.3513513513513514E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076555E-2</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
-        <v>1.277829092751432E-2</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>5.9458275792982612E-3</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>4</v>
+      </c>
+      <c r="R15" s="21">
+        <v>15</v>
+      </c>
+      <c r="S15" s="21">
+        <v>19</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="9"/>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="10"/>
+        <v>3.5885167464114832E-2</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="2"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="3"/>
+        <v>3.7145510915396474E-2</v>
+      </c>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="15"/>
+    </row>
+    <row r="16" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="7"/>
+        <v>1.1261261261261261E-2</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076555E-2</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="1"/>
+        <v>9.5408327384716059E-3</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>3</v>
+      </c>
+      <c r="R16" s="21">
+        <v>4</v>
+      </c>
+      <c r="S16" s="21">
         <v>7</v>
       </c>
-      <c r="R14" s="15">
+      <c r="T16" s="13">
+        <f t="shared" si="9"/>
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="U16" s="13">
+        <f t="shared" si="10"/>
+        <v>9.5693779904306216E-3</v>
+      </c>
+      <c r="V16" s="13">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="3"/>
+        <v>9.7886307400926807E-4</v>
+      </c>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="15"/>
+    </row>
+    <row r="17" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="7"/>
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="8"/>
+        <v>4.7846889952153108E-3</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7546748910824327E-2</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21">
+        <v>1</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="15"/>
+    </row>
+    <row r="18" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076555E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>1</v>
+      </c>
+      <c r="R18" s="21">
+        <v>1</v>
+      </c>
+      <c r="S18" s="21">
+        <v>2</v>
+      </c>
+      <c r="T18" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="U18" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="V18" s="13">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="3"/>
+        <v>8.4536045605100352E-6</v>
+      </c>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="15"/>
+    </row>
+    <row r="19" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="15">
-        <v>12</v>
-      </c>
-      <c r="T14" s="17">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13">
         <f t="shared" si="7"/>
-        <v>1.5765765765765764E-2</v>
-      </c>
-      <c r="U14" s="17">
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="H19" s="13">
         <f t="shared" si="8"/>
-        <v>1.1961722488038277E-2</v>
-      </c>
-      <c r="V14" s="17">
-        <f>R14/S14</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="W14" s="19">
+        <v>1.4354066985645933E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="15">
         <f t="shared" si="1"/>
-        <v>1.050407072179315E-3</v>
-      </c>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="19"/>
-    </row>
-    <row r="15" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15">
-        <v>6</v>
-      </c>
-      <c r="E15" s="15">
+        <v>2.4897720381886492E-3</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>1</v>
+      </c>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21">
+        <v>1</v>
+      </c>
+      <c r="T19" s="13">
+        <f t="shared" si="9"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="U19" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="15"/>
+    </row>
+    <row r="20" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="F15" s="15">
-        <v>16</v>
-      </c>
-      <c r="G15" s="17">
-        <f t="shared" si="5"/>
-        <v>1.3513513513513514E-2</v>
-      </c>
-      <c r="H15" s="17">
-        <f t="shared" si="6"/>
-        <v>2.3923444976076555E-2</v>
-      </c>
-      <c r="I15" s="17">
-        <f>E15/F15</f>
-        <v>0.625</v>
-      </c>
-      <c r="J15" s="19">
+      <c r="G20" s="13">
+        <f t="shared" si="7"/>
+        <v>2.0270270270270271E-2</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
-        <v>5.9458275792982612E-3</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>3.8203007902111071E-2</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21">
+        <v>2</v>
+      </c>
+      <c r="S20" s="21">
+        <v>2</v>
+      </c>
+      <c r="T20" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <f t="shared" si="10"/>
+        <v>4.7846889952153108E-3</v>
+      </c>
+      <c r="V20" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="15"/>
+    </row>
+    <row r="21" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="R15" s="15">
-        <v>4</v>
-      </c>
-      <c r="S15" s="15">
-        <v>11</v>
-      </c>
-      <c r="T15" s="17">
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" s="13">
         <f t="shared" si="7"/>
-        <v>1.5765765765765764E-2</v>
-      </c>
-      <c r="U15" s="17">
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="H21" s="13">
         <f t="shared" si="8"/>
-        <v>9.5693779904306216E-3</v>
-      </c>
-      <c r="V15" s="17">
-        <f>R15/S15</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="W15" s="19">
+        <v>1.6746411483253589E-2</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="J21" s="15">
         <f t="shared" si="1"/>
-        <v>3.0936869947634986E-3</v>
-      </c>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="19"/>
-      <c r="AV15" t="s">
+        <v>2.9078954483005105E-2</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="21">
+        <v>1</v>
+      </c>
+      <c r="T21" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="V21" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="15"/>
+      <c r="AU21" t="s">
         <v>86</v>
       </c>
-      <c r="AW15" s="20">
+      <c r="AV21" s="20">
         <f>SUM(AW6:AW10)</f>
         <v>0.21243108849703315</v>
       </c>
     </row>
-    <row r="16" spans="3:49" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15">
-        <v>10</v>
-      </c>
-      <c r="F16" s="15">
-        <v>15</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="5"/>
-        <v>1.1261261261261261E-2</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="6"/>
-        <v>2.3923444976076555E-2</v>
-      </c>
-      <c r="I16" s="17">
-        <f>E16/F16</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J16" s="19">
-        <f t="shared" si="0"/>
-        <v>9.5408327384716059E-3</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>3</v>
-      </c>
-      <c r="R16" s="15">
-        <v>4</v>
-      </c>
-      <c r="S16" s="15">
-        <v>7</v>
-      </c>
-      <c r="T16" s="17">
-        <f t="shared" si="7"/>
-        <v>6.7567567567567571E-3</v>
-      </c>
-      <c r="U16" s="17">
-        <f t="shared" si="8"/>
-        <v>9.5693779904306216E-3</v>
-      </c>
-      <c r="V16" s="17">
-        <f>R16/S16</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="W16" s="19">
-        <f t="shared" si="1"/>
-        <v>9.7886307400926807E-4</v>
-      </c>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="19"/>
-    </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15">
+    <row r="22" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
         <v>8</v>
       </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15">
-        <v>10</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="5"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="6"/>
-        <v>4.7846889952153108E-3</v>
-      </c>
-      <c r="I17" s="17">
-        <f>E17/F17</f>
-        <v>0.2</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" si="0"/>
-        <v>1.7546748910824327E-2</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15">
-        <v>2</v>
-      </c>
-      <c r="S17" s="15">
-        <v>2</v>
-      </c>
-      <c r="T17" s="17">
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U17" s="17">
+      <c r="H22" s="13">
+        <f t="shared" si="8"/>
+        <v>1.9138755980861243E-2</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="15">
+        <f>IFERROR( (H22-G22)*LN(H22/G22), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21">
+        <v>1</v>
+      </c>
+      <c r="S22" s="21">
+        <v>1</v>
+      </c>
+      <c r="T22" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="V22" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W22" s="15">
+        <f>IFERROR( (U22-T22)*LN(U22/T22), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="15"/>
+    </row>
+    <row r="23" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="7"/>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="8"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" ref="J23:J28" si="15">IFERROR( (H23-G23)*LN(H23/G23), 0)</f>
+        <v>8.7733744554121633E-3</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21">
+        <v>1</v>
+      </c>
+      <c r="S23" s="21">
+        <v>1</v>
+      </c>
+      <c r="T23" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <f t="shared" si="10"/>
+        <v>2.3923444976076554E-3</v>
+      </c>
+      <c r="V23" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="15">
+        <f t="shared" ref="W23:W24" si="16">IFERROR( (U23-T23)*LN(U23/T23), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="15"/>
+    </row>
+    <row r="24" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="7"/>
+        <v>4.5045045045045045E-3</v>
+      </c>
+      <c r="H24" s="13">
         <f t="shared" si="8"/>
         <v>4.7846889952153108E-3</v>
       </c>
-      <c r="V17" s="17">
-        <f>R17/S17</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="19">
-        <f t="shared" si="1"/>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="15"/>
+        <v>1.690720912102007E-5</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21">
+        <v>2</v>
+      </c>
+      <c r="S24" s="21">
+        <v>2</v>
+      </c>
+      <c r="T24" s="13">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="19"/>
-    </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
-        <v>10</v>
-      </c>
-      <c r="F18" s="15">
-        <v>10</v>
-      </c>
-      <c r="G18" s="17">
-        <f t="shared" si="5"/>
+      <c r="U24" s="13">
+        <f t="shared" si="10"/>
+        <v>4.7846889952153108E-3</v>
+      </c>
+      <c r="V24" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="15">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H18" s="17">
-        <f t="shared" si="6"/>
-        <v>2.3923444976076555E-2</v>
-      </c>
-      <c r="I18" s="17">
-        <f>E18/F18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="19">
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="15"/>
+    </row>
+    <row r="25" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="7"/>
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="8"/>
+        <v>7.1770334928229667E-3</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="15"/>
+        <v>5.7076019040587867E-3</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>444</v>
+      </c>
+      <c r="R25" s="21">
+        <v>418</v>
+      </c>
+      <c r="S25" s="21">
+        <v>862</v>
+      </c>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="15"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="15"/>
+    </row>
+    <row r="26" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="7"/>
+        <v>4.5045045045045045E-3</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15">
-        <v>2</v>
-      </c>
-      <c r="S18" s="15">
-        <v>2</v>
-      </c>
-      <c r="T18" s="17">
+      <c r="J26" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="15"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="15"/>
+    </row>
+    <row r="27" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="7"/>
+        <v>4.5045045045045045E-3</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="15"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="15"/>
+    </row>
+    <row r="28" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U18" s="17">
-        <f t="shared" si="8"/>
-        <v>4.7846889952153108E-3</v>
-      </c>
-      <c r="V18" s="17">
-        <f>R18/S18</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="19"/>
-    </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="15">
-        <v>4</v>
-      </c>
-      <c r="E19" s="15">
-        <v>6</v>
-      </c>
-      <c r="F19" s="15">
-        <v>10</v>
-      </c>
-      <c r="G19" s="17">
-        <f t="shared" si="5"/>
-        <v>9.0090090090090089E-3</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="6"/>
-        <v>1.4354066985645933E-2</v>
-      </c>
-      <c r="I19" s="17">
-        <f>E19/F19</f>
-        <v>0.6</v>
-      </c>
-      <c r="J19" s="19">
-        <f t="shared" si="0"/>
-        <v>2.4897720381886492E-3</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>1</v>
-      </c>
-      <c r="R19" s="15">
-        <v>1</v>
-      </c>
-      <c r="S19" s="15">
-        <v>2</v>
-      </c>
-      <c r="T19" s="17">
-        <f t="shared" si="7"/>
-        <v>2.2522522522522522E-3</v>
-      </c>
-      <c r="U19" s="17">
+      <c r="H28" s="13">
         <f t="shared" si="8"/>
         <v>2.3923444976076554E-3</v>
       </c>
-      <c r="V19" s="17">
-        <f>R19/S19</f>
-        <v>0.5</v>
-      </c>
-      <c r="W19" s="19">
-        <f t="shared" si="1"/>
-        <v>8.4536045605100352E-6</v>
-      </c>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="19"/>
-    </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="15">
-        <v>9</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
-        <v>10</v>
-      </c>
-      <c r="G20" s="17">
-        <f t="shared" si="5"/>
-        <v>2.0270270270270271E-2</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="6"/>
-        <v>2.3923444976076554E-3</v>
-      </c>
-      <c r="I20" s="17">
-        <f>E20/F20</f>
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="19">
+      <c r="I28" s="13">
         <f t="shared" si="0"/>
-        <v>3.8203007902111071E-2</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15">
-        <v>1</v>
-      </c>
-      <c r="S20" s="15">
-        <v>1</v>
-      </c>
-      <c r="T20" s="17">
-        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U20" s="17">
-        <f t="shared" si="8"/>
-        <v>2.3923444976076554E-3</v>
-      </c>
-      <c r="V20" s="17">
-        <f>R20/S20</f>
-        <v>1</v>
-      </c>
-      <c r="W20" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="19"/>
-    </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15">
-        <v>7</v>
-      </c>
-      <c r="F21" s="15">
-        <v>8</v>
-      </c>
-      <c r="G21" s="17">
-        <f t="shared" si="5"/>
-        <v>2.2522522522522522E-3</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="6"/>
-        <v>1.6746411483253589E-2</v>
-      </c>
-      <c r="I21" s="17">
-        <f>E21/F21</f>
-        <v>0.875</v>
-      </c>
-      <c r="J21" s="19">
-        <f t="shared" si="0"/>
-        <v>2.9078954483005105E-2</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>1</v>
-      </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15">
-        <v>1</v>
-      </c>
-      <c r="T21" s="17">
-        <f t="shared" si="7"/>
-        <v>2.2522522522522522E-3</v>
-      </c>
-      <c r="U21" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="17">
-        <f>R21/S21</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="19"/>
-    </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15">
-        <v>8</v>
-      </c>
-      <c r="G22" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="6"/>
-        <v>1.9138755980861243E-2</v>
-      </c>
-      <c r="I22" s="17">
-        <f>E22/F22</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="19">
-        <f>IFERROR( (H22-G22)*LN(H22/G22), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15">
-        <v>1</v>
-      </c>
-      <c r="S22" s="15">
-        <v>1</v>
-      </c>
-      <c r="T22" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="17">
-        <f t="shared" si="8"/>
-        <v>2.3923444976076554E-3</v>
-      </c>
-      <c r="V22" s="17">
-        <f>R22/S22</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="19">
-        <f>IFERROR( (U22-T22)*LN(U22/T22), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="19"/>
-    </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="15">
-        <v>4</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <f t="shared" si="5"/>
-        <v>9.0090090090090089E-3</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="6"/>
-        <v>2.3923444976076554E-3</v>
-      </c>
-      <c r="I23" s="17">
-        <f>E23/F23</f>
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="19">
-        <f t="shared" ref="J23:J28" si="13">IFERROR( (H23-G23)*LN(H23/G23), 0)</f>
-        <v>8.7733744554121633E-3</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15">
-        <v>1</v>
-      </c>
-      <c r="S23" s="15">
-        <v>1</v>
-      </c>
-      <c r="T23" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="17">
-        <f t="shared" si="8"/>
-        <v>2.3923444976076554E-3</v>
-      </c>
-      <c r="V23" s="17">
-        <f>R23/S23</f>
-        <v>1</v>
-      </c>
-      <c r="W23" s="19">
-        <f t="shared" ref="W23:W28" si="14">IFERROR( (U23-T23)*LN(U23/T23), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="19"/>
-    </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="15">
-        <v>2</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15">
-        <v>4</v>
-      </c>
-      <c r="G24" s="17">
-        <f t="shared" si="5"/>
-        <v>4.5045045045045045E-3</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="6"/>
-        <v>4.7846889952153108E-3</v>
-      </c>
-      <c r="I24" s="17">
-        <f>E24/F24</f>
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="19">
-        <f t="shared" si="13"/>
-        <v>1.690720912102007E-5</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="15">
-        <v>1</v>
-      </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15">
-        <v>1</v>
-      </c>
-      <c r="T24" s="17">
-        <f t="shared" si="7"/>
-        <v>2.2522522522522522E-3</v>
-      </c>
-      <c r="U24" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="17">
-        <f>R24/S24</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="19">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="19"/>
-    </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
-        <v>3</v>
-      </c>
-      <c r="F25" s="15">
-        <v>4</v>
-      </c>
-      <c r="G25" s="17">
-        <f t="shared" si="5"/>
-        <v>2.2522522522522522E-3</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="6"/>
-        <v>7.1770334928229667E-3</v>
-      </c>
-      <c r="I25" s="17">
-        <f>E25/F25</f>
-        <v>0.75</v>
-      </c>
-      <c r="J25" s="19">
-        <f t="shared" si="13"/>
-        <v>5.7076019040587867E-3</v>
-      </c>
-      <c r="P25" s="14" t="s">
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="15"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="15"/>
+    </row>
+    <row r="29" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="C29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="D29">
         <v>444</v>
       </c>
-      <c r="R25" s="15">
+      <c r="E29">
         <v>418</v>
       </c>
-      <c r="S25" s="15">
+      <c r="F29">
         <v>862</v>
       </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="19"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="19"/>
-    </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15">
-        <v>2</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15">
-        <v>2</v>
-      </c>
-      <c r="G26" s="17">
-        <f t="shared" si="5"/>
-        <v>4.5045045045045045E-3</v>
-      </c>
-      <c r="H26" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <f>E26/F26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="19"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="19"/>
-    </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C27" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="15">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15">
-        <v>2</v>
-      </c>
-      <c r="G27" s="17">
-        <f t="shared" si="5"/>
-        <v>4.5045045045045045E-3</v>
-      </c>
-      <c r="H27" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <f>E27/F27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="19"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="19"/>
-    </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15">
-        <v>1</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <f t="shared" si="6"/>
-        <v>2.3923444976076554E-3</v>
-      </c>
-      <c r="I28" s="17">
-        <f>E28/F28</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="19"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="19"/>
-    </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C29" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="15">
-        <v>444</v>
-      </c>
-      <c r="E29" s="15">
-        <v>418</v>
-      </c>
-      <c r="F29" s="15">
-        <v>862</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="AI29" s="17"/>
-    </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="I29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="AI29" s="13"/>
+    </row>
+    <row r="30" spans="3:48" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>86</v>
       </c>
@@ -25017,8 +25092,133 @@
         <v>0.3472785218387765</v>
       </c>
     </row>
+    <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="R35" t="s">
+        <v>97</v>
+      </c>
+      <c r="S35" t="s">
+        <v>84</v>
+      </c>
+      <c r="T35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36">
+        <v>0.79</v>
+      </c>
+      <c r="T36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="R37" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37">
+        <v>0.35</v>
+      </c>
+      <c r="T37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="R38" t="s">
+        <v>96</v>
+      </c>
+      <c r="S38">
+        <v>0.21</v>
+      </c>
+      <c r="T38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="R39" t="s">
+        <v>101</v>
+      </c>
+      <c r="S39">
+        <v>0.05</v>
+      </c>
+      <c r="T39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="U6:U24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH6:AH9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU6:AU12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35:S39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -25042,10 +25242,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="19"/>
       <c r="J2" s="1" t="s">
         <v>56</v>
       </c>
@@ -25074,10 +25274,10 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17"/>
       <c r="J4" t="s">
         <v>6</v>
       </c>
@@ -25217,10 +25417,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="17"/>
       <c r="J15" t="s">
         <v>8</v>
       </c>
@@ -25229,7 +25429,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="21">
+      <c r="C16" s="16">
         <f>IFERROR( VLOOKUP(C6&amp;C8&amp;C12,DePara!L:S,8,TRUE), 1/100)</f>
         <v>0.5</v>
       </c>
@@ -25272,10 +25472,10 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="18"/>
       <c r="J20" t="s">
         <v>11</v>
       </c>
@@ -25333,37 +25533,37 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(C8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(C17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(C24))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25417,21 +25617,21 @@
     <row r="2" spans="3:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="3:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F5" t="s">
@@ -25454,13 +25654,13 @@
       <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6">
         <v>17</v>
       </c>
       <c r="L6" t="s">
@@ -25492,11 +25692,10 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
       <c r="L7" t="str">
@@ -25521,7 +25720,7 @@
       <c r="R7">
         <v>17</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="13">
         <f>Q7/R7</f>
         <v>0.41176470588235292</v>
       </c>
@@ -25530,13 +25729,13 @@
       <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8">
         <v>14</v>
       </c>
       <c r="L8" t="str">
@@ -25558,7 +25757,7 @@
       <c r="R8">
         <v>2</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="13">
         <f t="shared" ref="S8:S71" si="1">Q8/R8</f>
         <v>1</v>
       </c>
@@ -25567,13 +25766,13 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9">
         <v>6</v>
       </c>
       <c r="L9" t="str">
@@ -25598,7 +25797,7 @@
       <c r="R9">
         <v>14</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
@@ -25610,13 +25809,13 @@
       <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10">
         <v>8</v>
       </c>
       <c r="L10" t="str">
@@ -25641,7 +25840,7 @@
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -25650,13 +25849,13 @@
       <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11">
         <v>8</v>
       </c>
       <c r="L11" t="str">
@@ -25681,7 +25880,7 @@
       <c r="R11">
         <v>8</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -25693,11 +25892,10 @@
       <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="L12" t="str">
@@ -25722,7 +25920,7 @@
       <c r="R12">
         <v>8</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="13">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
@@ -25731,13 +25929,13 @@
       <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="15">
-        <v>2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
       <c r="L13" t="str">
@@ -25759,7 +25957,7 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -25768,13 +25966,13 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14">
         <v>10</v>
       </c>
       <c r="L14" t="str">
@@ -25799,7 +25997,7 @@
       <c r="R14">
         <v>3</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="13">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -25811,13 +26009,13 @@
       <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15">
         <v>12</v>
       </c>
       <c r="L15" t="str">
@@ -25842,7 +26040,7 @@
       <c r="R15">
         <v>10</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="13">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
@@ -25851,11 +26049,10 @@
       <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15">
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16">
         <v>3</v>
       </c>
       <c r="L16" t="str">
@@ -25880,7 +26077,7 @@
       <c r="R16">
         <v>12</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -25895,11 +26092,10 @@
       <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17">
         <v>3</v>
       </c>
       <c r="L17" t="str">
@@ -25921,7 +26117,7 @@
       <c r="R17">
         <v>3</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -25930,11 +26126,10 @@
       <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15">
-        <v>2</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
       <c r="L18" t="str">
@@ -25956,7 +26151,7 @@
       <c r="R18">
         <v>3</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -25965,13 +26160,13 @@
       <c r="E19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="15">
-        <v>2</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19">
         <v>6</v>
       </c>
       <c r="L19" t="str">
@@ -25993,7 +26188,7 @@
       <c r="R19">
         <v>2</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26002,11 +26197,10 @@
       <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="L20" t="str">
@@ -26031,7 +26225,7 @@
       <c r="R20">
         <v>6</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="13">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -26043,11 +26237,10 @@
       <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="L21" t="str">
@@ -26069,7 +26262,7 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26078,11 +26271,10 @@
       <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
       <c r="L22" t="str">
@@ -26104,7 +26296,7 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26116,11 +26308,10 @@
       <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="L23" t="str">
@@ -26142,7 +26333,7 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26151,11 +26342,10 @@
       <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
       <c r="L24" t="str">
@@ -26177,7 +26367,7 @@
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24" s="17">
+      <c r="S24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26192,13 +26382,13 @@
       <c r="E25" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="15">
-        <v>2</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
         <v>9</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25">
         <v>11</v>
       </c>
       <c r="L25" t="str">
@@ -26220,7 +26410,7 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26229,13 +26419,13 @@
       <c r="E26" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
       <c r="L26" t="str">
@@ -26260,7 +26450,7 @@
       <c r="R26">
         <v>11</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="13">
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
@@ -26269,13 +26459,13 @@
       <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27">
         <v>5</v>
       </c>
       <c r="L27" t="str">
@@ -26300,7 +26490,7 @@
       <c r="R27">
         <v>2</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -26309,13 +26499,13 @@
       <c r="E28" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28">
         <v>4</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28">
         <v>15</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28">
         <v>19</v>
       </c>
       <c r="L28" t="str">
@@ -26340,7 +26530,7 @@
       <c r="R28">
         <v>5</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -26349,13 +26539,13 @@
       <c r="E29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29">
         <v>10</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29">
         <v>57</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29">
         <v>67</v>
       </c>
       <c r="L29" t="str">
@@ -26380,7 +26570,7 @@
       <c r="R29">
         <v>19</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="13">
         <f t="shared" si="1"/>
         <v>0.78947368421052633</v>
       </c>
@@ -26389,11 +26579,10 @@
       <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15">
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30">
         <v>4</v>
       </c>
       <c r="L30" t="str">
@@ -26418,7 +26607,7 @@
       <c r="R30">
         <v>67</v>
       </c>
-      <c r="S30" s="17">
+      <c r="S30" s="13">
         <f t="shared" si="1"/>
         <v>0.85074626865671643</v>
       </c>
@@ -26430,11 +26619,10 @@
       <c r="E31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>1</v>
       </c>
       <c r="L31" t="str">
@@ -26456,7 +26644,7 @@
       <c r="R31">
         <v>4</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26465,11 +26653,10 @@
       <c r="E32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15">
+      <c r="G32">
         <v>5</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32">
         <v>5</v>
       </c>
       <c r="L32" t="str">
@@ -26491,7 +26678,7 @@
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="17">
+      <c r="S32" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26500,11 +26687,10 @@
       <c r="E33" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15">
-        <v>2</v>
-      </c>
-      <c r="H33" s="15">
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
       <c r="L33" t="str">
@@ -26526,7 +26712,7 @@
       <c r="R33">
         <v>5</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26538,11 +26724,10 @@
       <c r="E34" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15">
-        <v>1</v>
-      </c>
-      <c r="H34" s="15">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>1</v>
       </c>
       <c r="L34" t="str">
@@ -26564,7 +26749,7 @@
       <c r="R34">
         <v>2</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26579,11 +26764,10 @@
       <c r="E35" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>1</v>
       </c>
       <c r="L35" t="str">
@@ -26605,7 +26789,7 @@
       <c r="R35">
         <v>1</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26617,13 +26801,13 @@
       <c r="E36" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="G36" s="15">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36">
         <v>5</v>
       </c>
       <c r="L36" t="str">
@@ -26645,7 +26829,7 @@
       <c r="R36">
         <v>1</v>
       </c>
-      <c r="S36" s="17">
+      <c r="S36" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -26654,13 +26838,13 @@
       <c r="E37" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="15">
-        <v>2</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37">
         <v>5</v>
       </c>
       <c r="L37" t="str">
@@ -26685,7 +26869,7 @@
       <c r="R37">
         <v>5</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -26694,11 +26878,10 @@
       <c r="E38" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
       <c r="L38" t="str">
@@ -26723,7 +26906,7 @@
       <c r="R38">
         <v>5</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="13">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
@@ -26732,13 +26915,13 @@
       <c r="E39" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="15">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15">
-        <v>2</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
         <v>3</v>
       </c>
       <c r="L39" t="str">
@@ -26760,7 +26943,7 @@
       <c r="R39">
         <v>1</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26772,11 +26955,10 @@
       <c r="E40" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="15">
-        <v>1</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
       <c r="L40" t="str">
@@ -26801,7 +26983,7 @@
       <c r="R40">
         <v>3</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="13">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -26810,13 +26992,13 @@
       <c r="E41" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="G41" s="15">
-        <v>1</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>4</v>
       </c>
       <c r="L41" t="str">
@@ -26838,7 +27020,7 @@
       <c r="R41">
         <v>1</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26847,13 +27029,13 @@
       <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42">
         <v>6</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42">
         <v>10</v>
       </c>
       <c r="L42" t="str">
@@ -26878,7 +27060,7 @@
       <c r="R42">
         <v>4</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="13">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -26887,11 +27069,10 @@
       <c r="E43" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="15">
-        <v>1</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>1</v>
       </c>
       <c r="L43" t="str">
@@ -26916,7 +27097,7 @@
       <c r="R43">
         <v>10</v>
       </c>
-      <c r="S43" s="17">
+      <c r="S43" s="13">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
@@ -26925,13 +27106,13 @@
       <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="15">
-        <v>2</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
         <v>8</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44">
         <v>10</v>
       </c>
       <c r="L44" t="str">
@@ -26953,7 +27134,7 @@
       <c r="R44">
         <v>1</v>
       </c>
-      <c r="S44" s="17">
+      <c r="S44" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -26968,13 +27149,13 @@
       <c r="E45" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="15">
-        <v>2</v>
-      </c>
-      <c r="G45" s="15">
-        <v>1</v>
-      </c>
-      <c r="H45" s="15">
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>3</v>
       </c>
       <c r="L45" t="str">
@@ -26999,7 +27180,7 @@
       <c r="R45">
         <v>10</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="13">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -27008,13 +27189,13 @@
       <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="15">
-        <v>2</v>
-      </c>
-      <c r="G46" s="15">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46">
         <v>7</v>
       </c>
       <c r="L46" t="str">
@@ -27039,7 +27220,7 @@
       <c r="R46">
         <v>3</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="13">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -27048,13 +27229,13 @@
       <c r="E47" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="15">
-        <v>1</v>
-      </c>
-      <c r="G47" s="15">
-        <v>2</v>
-      </c>
-      <c r="H47" s="15">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
         <v>3</v>
       </c>
       <c r="L47" t="str">
@@ -27079,7 +27260,7 @@
       <c r="R47">
         <v>7</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="13">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
@@ -27091,11 +27272,10 @@
       <c r="E48" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15">
-        <v>2</v>
-      </c>
-      <c r="H48" s="15">
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
         <v>2</v>
       </c>
       <c r="L48" t="str">
@@ -27120,7 +27300,7 @@
       <c r="R48">
         <v>3</v>
       </c>
-      <c r="S48" s="17">
+      <c r="S48" s="13">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -27135,11 +27315,10 @@
       <c r="E49" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15">
-        <v>2</v>
-      </c>
-      <c r="H49" s="15">
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
       <c r="L49" t="str">
@@ -27161,7 +27340,7 @@
       <c r="R49">
         <v>2</v>
       </c>
-      <c r="S49" s="17">
+      <c r="S49" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27173,11 +27352,10 @@
       <c r="E50" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15">
-        <v>1</v>
-      </c>
-      <c r="H50" s="15">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
         <v>1</v>
       </c>
       <c r="L50" t="str">
@@ -27199,7 +27377,7 @@
       <c r="R50">
         <v>2</v>
       </c>
-      <c r="S50" s="17">
+      <c r="S50" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27208,11 +27386,10 @@
       <c r="E51" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15">
-        <v>1</v>
-      </c>
-      <c r="H51" s="15">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
         <v>1</v>
       </c>
       <c r="L51" t="str">
@@ -27234,7 +27411,7 @@
       <c r="R51">
         <v>1</v>
       </c>
-      <c r="S51" s="17">
+      <c r="S51" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27246,11 +27423,10 @@
       <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15">
-        <v>1</v>
-      </c>
-      <c r="H52" s="15">
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
         <v>1</v>
       </c>
       <c r="L52" t="str">
@@ -27272,7 +27448,7 @@
       <c r="R52">
         <v>1</v>
       </c>
-      <c r="S52" s="17">
+      <c r="S52" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27281,11 +27457,10 @@
       <c r="E53" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15">
+      <c r="G53">
         <v>5</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53">
         <v>5</v>
       </c>
       <c r="L53" t="str">
@@ -27307,7 +27482,7 @@
       <c r="R53">
         <v>1</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27322,13 +27497,13 @@
       <c r="E54" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54">
         <v>7</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54">
         <v>10</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54">
         <v>17</v>
       </c>
       <c r="L54" t="str">
@@ -27350,7 +27525,7 @@
       <c r="R54">
         <v>5</v>
       </c>
-      <c r="S54" s="17">
+      <c r="S54" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27359,13 +27534,13 @@
       <c r="E55" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55">
         <v>21</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55">
         <v>18</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55">
         <v>39</v>
       </c>
       <c r="L55" t="str">
@@ -27390,7 +27565,7 @@
       <c r="R55">
         <v>17</v>
       </c>
-      <c r="S55" s="17">
+      <c r="S55" s="13">
         <f t="shared" si="1"/>
         <v>0.58823529411764708</v>
       </c>
@@ -27399,13 +27574,13 @@
       <c r="E56" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56">
         <v>5</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56">
         <v>11</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56">
         <v>16</v>
       </c>
       <c r="L56" t="str">
@@ -27430,7 +27605,7 @@
       <c r="R56">
         <v>39</v>
       </c>
-      <c r="S56" s="17">
+      <c r="S56" s="13">
         <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
@@ -27439,13 +27614,13 @@
       <c r="E57" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57">
         <v>11</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57">
         <v>7</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57">
         <v>18</v>
       </c>
       <c r="L57" t="str">
@@ -27470,7 +27645,7 @@
       <c r="R57">
         <v>16</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="13">
         <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
@@ -27482,13 +27657,13 @@
       <c r="E58" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="15">
-        <v>2</v>
-      </c>
-      <c r="G58" s="15">
-        <v>2</v>
-      </c>
-      <c r="H58" s="15">
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>4</v>
       </c>
       <c r="L58" t="str">
@@ -27513,7 +27688,7 @@
       <c r="R58">
         <v>18</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="13">
         <f t="shared" si="1"/>
         <v>0.3888888888888889</v>
       </c>
@@ -27522,13 +27697,13 @@
       <c r="E59" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="15">
-        <v>2</v>
-      </c>
-      <c r="G59" s="15">
-        <v>2</v>
-      </c>
-      <c r="H59" s="15">
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
         <v>4</v>
       </c>
       <c r="L59" t="str">
@@ -27553,7 +27728,7 @@
       <c r="R59">
         <v>4</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -27565,13 +27740,13 @@
       <c r="E60" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="15">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>3</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60">
         <v>4</v>
       </c>
       <c r="L60" t="str">
@@ -27596,7 +27771,7 @@
       <c r="R60">
         <v>4</v>
       </c>
-      <c r="S60" s="17">
+      <c r="S60" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -27605,13 +27780,13 @@
       <c r="E61" t="s">
         <v>50</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61">
         <v>4</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61">
         <v>8</v>
       </c>
       <c r="L61" t="str">
@@ -27636,7 +27811,7 @@
       <c r="R61">
         <v>4</v>
       </c>
-      <c r="S61" s="17">
+      <c r="S61" s="13">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -27645,13 +27820,13 @@
       <c r="E62" t="s">
         <v>51</v>
       </c>
-      <c r="F62" s="15">
-        <v>2</v>
-      </c>
-      <c r="G62" s="15">
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
         <v>9</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62">
         <v>11</v>
       </c>
       <c r="L62" t="str">
@@ -27676,7 +27851,7 @@
       <c r="R62">
         <v>8</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -27685,13 +27860,13 @@
       <c r="E63" t="s">
         <v>52</v>
       </c>
-      <c r="F63" s="15">
-        <v>1</v>
-      </c>
-      <c r="G63" s="15">
-        <v>2</v>
-      </c>
-      <c r="H63" s="15">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
         <v>3</v>
       </c>
       <c r="L63" t="str">
@@ -27716,7 +27891,7 @@
       <c r="R63">
         <v>11</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="13">
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
@@ -27725,11 +27900,10 @@
       <c r="E64" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15">
-        <v>1</v>
-      </c>
-      <c r="H64" s="15">
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>1</v>
       </c>
       <c r="L64" t="str">
@@ -27754,7 +27928,7 @@
       <c r="R64">
         <v>3</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="13">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -27766,11 +27940,10 @@
       <c r="E65" t="s">
         <v>49</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65">
         <v>8</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15">
+      <c r="H65">
         <v>8</v>
       </c>
       <c r="L65" t="str">
@@ -27792,7 +27965,7 @@
       <c r="R65">
         <v>1</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -27804,13 +27977,13 @@
       <c r="E66" t="s">
         <v>52</v>
       </c>
-      <c r="F66" s="15">
-        <v>1</v>
-      </c>
-      <c r="G66" s="15">
-        <v>1</v>
-      </c>
-      <c r="H66" s="15">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
         <v>2</v>
       </c>
       <c r="L66" t="str">
@@ -27832,7 +28005,7 @@
       <c r="R66">
         <v>8</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S66" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27844,11 +28017,10 @@
       <c r="E67" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="15">
-        <v>1</v>
-      </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>1</v>
       </c>
       <c r="L67" t="str">
@@ -27873,7 +28045,7 @@
       <c r="R67">
         <v>2</v>
       </c>
-      <c r="S67" s="17">
+      <c r="S67" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -27882,13 +28054,13 @@
       <c r="E68" t="s">
         <v>51</v>
       </c>
-      <c r="F68" s="15">
-        <v>2</v>
-      </c>
-      <c r="G68" s="15">
-        <v>2</v>
-      </c>
-      <c r="H68" s="15">
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
         <v>4</v>
       </c>
       <c r="L68" t="str">
@@ -27910,7 +28082,7 @@
       <c r="R68">
         <v>1</v>
       </c>
-      <c r="S68" s="17">
+      <c r="S68" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27925,11 +28097,10 @@
       <c r="E69" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="15">
-        <v>1</v>
-      </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69">
         <v>1</v>
       </c>
       <c r="L69" t="str">
@@ -27954,7 +28125,7 @@
       <c r="R69">
         <v>4</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="13">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -27966,11 +28137,10 @@
       <c r="E70" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="15">
-        <v>1</v>
-      </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="H70">
         <v>1</v>
       </c>
       <c r="L70" t="str">
@@ -27992,7 +28162,7 @@
       <c r="R70">
         <v>1</v>
       </c>
-      <c r="S70" s="17">
+      <c r="S70" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -28001,11 +28171,10 @@
       <c r="E71" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15">
-        <v>1</v>
-      </c>
-      <c r="H71" s="15">
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
         <v>1</v>
       </c>
       <c r="L71" t="str">
@@ -28027,7 +28196,7 @@
       <c r="R71">
         <v>1</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -28036,11 +28205,10 @@
       <c r="E72" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="15">
-        <v>1</v>
-      </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="H72">
         <v>1</v>
       </c>
       <c r="L72" t="str">
@@ -28062,7 +28230,7 @@
       <c r="R72">
         <v>1</v>
       </c>
-      <c r="S72" s="17">
+      <c r="S72" s="13">
         <f t="shared" ref="S72:S135" si="3">Q72/R72</f>
         <v>1</v>
       </c>
@@ -28071,11 +28239,10 @@
       <c r="E73" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="15">
-        <v>1</v>
-      </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="H73">
         <v>1</v>
       </c>
       <c r="L73" t="str">
@@ -28097,7 +28264,7 @@
       <c r="R73">
         <v>1</v>
       </c>
-      <c r="S73" s="17">
+      <c r="S73" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28112,11 +28279,10 @@
       <c r="E74" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="15">
-        <v>1</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="H74">
         <v>1</v>
       </c>
       <c r="L74" t="str">
@@ -28138,7 +28304,7 @@
       <c r="R74">
         <v>1</v>
       </c>
-      <c r="S74" s="17">
+      <c r="S74" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28150,13 +28316,13 @@
       <c r="E75" t="s">
         <v>50</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75">
         <v>15</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75">
         <v>3</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75">
         <v>18</v>
       </c>
       <c r="L75" t="str">
@@ -28178,7 +28344,7 @@
       <c r="R75">
         <v>1</v>
       </c>
-      <c r="S75" s="17">
+      <c r="S75" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28187,13 +28353,13 @@
       <c r="E76" t="s">
         <v>51</v>
       </c>
-      <c r="F76" s="15">
-        <v>2</v>
-      </c>
-      <c r="G76" s="15">
-        <v>1</v>
-      </c>
-      <c r="H76" s="15">
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
         <v>3</v>
       </c>
       <c r="L76" t="str">
@@ -28218,7 +28384,7 @@
       <c r="R76">
         <v>18</v>
       </c>
-      <c r="S76" s="17">
+      <c r="S76" s="13">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
@@ -28230,13 +28396,13 @@
       <c r="E77" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77">
         <v>10</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77">
         <v>5</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77">
         <v>15</v>
       </c>
       <c r="L77" t="str">
@@ -28261,7 +28427,7 @@
       <c r="R77">
         <v>3</v>
       </c>
-      <c r="S77" s="17">
+      <c r="S77" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -28270,13 +28436,13 @@
       <c r="E78" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="G78" s="15">
-        <v>1</v>
-      </c>
-      <c r="H78" s="15">
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
         <v>5</v>
       </c>
       <c r="L78" t="str">
@@ -28301,7 +28467,7 @@
       <c r="R78">
         <v>15</v>
       </c>
-      <c r="S78" s="17">
+      <c r="S78" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -28313,11 +28479,10 @@
       <c r="E79" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="15">
-        <v>1</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>1</v>
       </c>
       <c r="L79" t="str">
@@ -28342,7 +28507,7 @@
       <c r="R79">
         <v>5</v>
       </c>
-      <c r="S79" s="17">
+      <c r="S79" s="13">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
@@ -28354,11 +28519,10 @@
       <c r="E80" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80">
         <v>4</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15">
+      <c r="H80">
         <v>4</v>
       </c>
       <c r="L80" t="str">
@@ -28380,7 +28544,7 @@
       <c r="R80">
         <v>1</v>
       </c>
-      <c r="S80" s="17">
+      <c r="S80" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28395,11 +28559,10 @@
       <c r="E81" t="s">
         <v>50</v>
       </c>
-      <c r="F81" s="15">
-        <v>1</v>
-      </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
         <v>1</v>
       </c>
       <c r="L81" t="str">
@@ -28421,7 +28584,7 @@
       <c r="R81">
         <v>4</v>
       </c>
-      <c r="S81" s="17">
+      <c r="S81" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28433,11 +28596,10 @@
       <c r="E82" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15">
-        <v>1</v>
-      </c>
-      <c r="H82" s="15">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
         <v>1</v>
       </c>
       <c r="L82" t="str">
@@ -28459,7 +28621,7 @@
       <c r="R82">
         <v>1</v>
       </c>
-      <c r="S82" s="17">
+      <c r="S82" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28468,11 +28630,10 @@
       <c r="E83" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="15">
-        <v>1</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="H83">
         <v>1</v>
       </c>
       <c r="L83" t="str">
@@ -28494,7 +28655,7 @@
       <c r="R83">
         <v>1</v>
       </c>
-      <c r="S83" s="17">
+      <c r="S83" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -28506,11 +28667,10 @@
       <c r="E84" t="s">
         <v>50</v>
       </c>
-      <c r="F84" s="15">
-        <v>1</v>
-      </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84">
         <v>1</v>
       </c>
       <c r="L84" t="str">
@@ -28532,7 +28692,7 @@
       <c r="R84">
         <v>1</v>
       </c>
-      <c r="S84" s="17">
+      <c r="S84" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28544,11 +28704,10 @@
       <c r="E85" t="s">
         <v>49</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15">
-        <v>1</v>
-      </c>
-      <c r="H85" s="15">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
         <v>1</v>
       </c>
       <c r="L85" t="str">
@@ -28570,7 +28729,7 @@
       <c r="R85">
         <v>1</v>
       </c>
-      <c r="S85" s="17">
+      <c r="S85" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28579,13 +28738,13 @@
       <c r="E86" t="s">
         <v>50</v>
       </c>
-      <c r="F86" s="15">
-        <v>1</v>
-      </c>
-      <c r="G86" s="15">
-        <v>1</v>
-      </c>
-      <c r="H86" s="15">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
         <v>2</v>
       </c>
       <c r="L86" t="str">
@@ -28607,7 +28766,7 @@
       <c r="R86">
         <v>1</v>
       </c>
-      <c r="S86" s="17">
+      <c r="S86" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -28619,11 +28778,10 @@
       <c r="E87" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15">
-        <v>1</v>
-      </c>
-      <c r="H87" s="15">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
         <v>1</v>
       </c>
       <c r="L87" t="str">
@@ -28648,7 +28806,7 @@
       <c r="R87">
         <v>2</v>
       </c>
-      <c r="S87" s="17">
+      <c r="S87" s="13">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -28660,11 +28818,10 @@
       <c r="E88" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15">
-        <v>1</v>
-      </c>
-      <c r="H88" s="15">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
         <v>1</v>
       </c>
       <c r="L88" t="str">
@@ -28686,7 +28843,7 @@
       <c r="R88">
         <v>1</v>
       </c>
-      <c r="S88" s="17">
+      <c r="S88" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -28695,11 +28852,10 @@
       <c r="E89" t="s">
         <v>50</v>
       </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15">
-        <v>1</v>
-      </c>
-      <c r="H89" s="15">
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
         <v>1</v>
       </c>
       <c r="L89" t="str">
@@ -28721,7 +28877,7 @@
       <c r="R89">
         <v>1</v>
       </c>
-      <c r="S89" s="17">
+      <c r="S89" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -28736,11 +28892,10 @@
       <c r="E90" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15">
-        <v>1</v>
-      </c>
-      <c r="H90" s="15">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
         <v>1</v>
       </c>
       <c r="L90" t="str">
@@ -28762,7 +28917,7 @@
       <c r="R90">
         <v>1</v>
       </c>
-      <c r="S90" s="17">
+      <c r="S90" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -28777,11 +28932,10 @@
       <c r="E91" t="s">
         <v>48</v>
       </c>
-      <c r="F91" s="15">
-        <v>2</v>
-      </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="H91">
         <v>2</v>
       </c>
       <c r="L91" t="str">
@@ -28803,7 +28957,7 @@
       <c r="R91">
         <v>1</v>
       </c>
-      <c r="S91" s="17">
+      <c r="S91" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -28815,11 +28969,10 @@
       <c r="E92" t="s">
         <v>49</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F92">
         <v>3</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15">
+      <c r="H92">
         <v>3</v>
       </c>
       <c r="L92" t="str">
@@ -28841,7 +28994,7 @@
       <c r="R92">
         <v>2</v>
       </c>
-      <c r="S92" s="17">
+      <c r="S92" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28850,13 +29003,13 @@
       <c r="E93" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="15">
-        <v>2</v>
-      </c>
-      <c r="G93" s="15">
-        <v>1</v>
-      </c>
-      <c r="H93" s="15">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
         <v>3</v>
       </c>
       <c r="L93" t="str">
@@ -28878,7 +29031,7 @@
       <c r="R93">
         <v>3</v>
       </c>
-      <c r="S93" s="17">
+      <c r="S93" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28887,11 +29040,10 @@
       <c r="E94" t="s">
         <v>51</v>
       </c>
-      <c r="F94" s="15">
-        <v>2</v>
-      </c>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="H94">
         <v>2</v>
       </c>
       <c r="L94" t="str">
@@ -28916,7 +29068,7 @@
       <c r="R94">
         <v>3</v>
       </c>
-      <c r="S94" s="17">
+      <c r="S94" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -28931,11 +29083,10 @@
       <c r="E95" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="15">
-        <v>1</v>
-      </c>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95">
         <v>1</v>
       </c>
       <c r="L95" t="str">
@@ -28957,7 +29108,7 @@
       <c r="R95">
         <v>2</v>
       </c>
-      <c r="S95" s="17">
+      <c r="S95" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -28966,13 +29117,13 @@
       <c r="E96" t="s">
         <v>49</v>
       </c>
-      <c r="F96" s="15">
+      <c r="F96">
         <v>9</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96">
         <v>5</v>
       </c>
-      <c r="H96" s="15">
+      <c r="H96">
         <v>14</v>
       </c>
       <c r="L96" t="str">
@@ -28994,7 +29145,7 @@
       <c r="R96">
         <v>1</v>
       </c>
-      <c r="S96" s="17">
+      <c r="S96" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29003,13 +29154,13 @@
       <c r="E97" t="s">
         <v>50</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F97">
         <v>7</v>
       </c>
-      <c r="G97" s="15">
+      <c r="G97">
         <v>3</v>
       </c>
-      <c r="H97" s="15">
+      <c r="H97">
         <v>10</v>
       </c>
       <c r="L97" t="str">
@@ -29034,7 +29185,7 @@
       <c r="R97">
         <v>14</v>
       </c>
-      <c r="S97" s="17">
+      <c r="S97" s="13">
         <f t="shared" si="3"/>
         <v>0.35714285714285715</v>
       </c>
@@ -29043,11 +29194,10 @@
       <c r="E98" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="15">
-        <v>2</v>
-      </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15">
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="H98">
         <v>2</v>
       </c>
       <c r="L98" t="str">
@@ -29072,7 +29222,7 @@
       <c r="R98">
         <v>10</v>
       </c>
-      <c r="S98" s="17">
+      <c r="S98" s="13">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
@@ -29081,11 +29231,10 @@
       <c r="E99" t="s">
         <v>52</v>
       </c>
-      <c r="F99" s="15">
-        <v>1</v>
-      </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99">
         <v>1</v>
       </c>
       <c r="L99" t="str">
@@ -29107,7 +29256,7 @@
       <c r="R99">
         <v>2</v>
       </c>
-      <c r="S99" s="17">
+      <c r="S99" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29116,11 +29265,10 @@
       <c r="E100" t="s">
         <v>47</v>
       </c>
-      <c r="F100" s="15">
-        <v>1</v>
-      </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="H100">
         <v>1</v>
       </c>
       <c r="L100" t="str">
@@ -29142,7 +29290,7 @@
       <c r="R100">
         <v>1</v>
       </c>
-      <c r="S100" s="17">
+      <c r="S100" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29151,11 +29299,10 @@
       <c r="E101" t="s">
         <v>48</v>
       </c>
-      <c r="F101" s="15">
+      <c r="F101">
         <v>5</v>
       </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15">
+      <c r="H101">
         <v>5</v>
       </c>
       <c r="L101" t="str">
@@ -29177,7 +29324,7 @@
       <c r="R101">
         <v>1</v>
       </c>
-      <c r="S101" s="17">
+      <c r="S101" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29189,11 +29336,10 @@
       <c r="E102" t="s">
         <v>49</v>
       </c>
-      <c r="F102" s="15">
+      <c r="F102">
         <v>3</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15">
+      <c r="H102">
         <v>3</v>
       </c>
       <c r="L102" t="str">
@@ -29215,7 +29361,7 @@
       <c r="R102">
         <v>5</v>
       </c>
-      <c r="S102" s="17">
+      <c r="S102" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29224,11 +29370,10 @@
       <c r="E103" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="15">
-        <v>1</v>
-      </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="H103">
         <v>1</v>
       </c>
       <c r="L103" t="str">
@@ -29250,7 +29395,7 @@
       <c r="R103">
         <v>3</v>
       </c>
-      <c r="S103" s="17">
+      <c r="S103" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29262,13 +29407,13 @@
       <c r="E104" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="15">
+      <c r="F104">
         <v>5</v>
       </c>
-      <c r="G104" s="15">
-        <v>2</v>
-      </c>
-      <c r="H104" s="15">
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
         <v>7</v>
       </c>
       <c r="L104" t="str">
@@ -29290,7 +29435,7 @@
       <c r="R104">
         <v>1</v>
       </c>
-      <c r="S104" s="17">
+      <c r="S104" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29299,13 +29444,13 @@
       <c r="E105" t="s">
         <v>51</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105">
         <v>5</v>
       </c>
-      <c r="G105" s="15">
-        <v>1</v>
-      </c>
-      <c r="H105" s="15">
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
         <v>6</v>
       </c>
       <c r="L105" t="str">
@@ -29330,7 +29475,7 @@
       <c r="R105">
         <v>7</v>
       </c>
-      <c r="S105" s="17">
+      <c r="S105" s="13">
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
@@ -29339,13 +29484,13 @@
       <c r="E106" t="s">
         <v>47</v>
       </c>
-      <c r="F106" s="15">
-        <v>2</v>
-      </c>
-      <c r="G106" s="15">
-        <v>1</v>
-      </c>
-      <c r="H106" s="15">
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
         <v>3</v>
       </c>
       <c r="L106" t="str">
@@ -29370,7 +29515,7 @@
       <c r="R106">
         <v>6</v>
       </c>
-      <c r="S106" s="17">
+      <c r="S106" s="13">
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
@@ -29379,13 +29524,13 @@
       <c r="E107" t="s">
         <v>48</v>
       </c>
-      <c r="F107" s="15">
-        <v>2</v>
-      </c>
-      <c r="G107" s="15">
-        <v>1</v>
-      </c>
-      <c r="H107" s="15">
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
         <v>3</v>
       </c>
       <c r="L107" t="str">
@@ -29410,7 +29555,7 @@
       <c r="R107">
         <v>3</v>
       </c>
-      <c r="S107" s="17">
+      <c r="S107" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -29422,11 +29567,10 @@
       <c r="E108" t="s">
         <v>53</v>
       </c>
-      <c r="F108" s="15">
-        <v>1</v>
-      </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15">
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108">
         <v>1</v>
       </c>
       <c r="L108" t="str">
@@ -29451,7 +29595,7 @@
       <c r="R108">
         <v>3</v>
       </c>
-      <c r="S108" s="17">
+      <c r="S108" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -29460,11 +29604,10 @@
       <c r="E109" t="s">
         <v>49</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109">
         <v>6</v>
       </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15">
+      <c r="H109">
         <v>6</v>
       </c>
       <c r="L109" t="str">
@@ -29486,7 +29629,7 @@
       <c r="R109">
         <v>1</v>
       </c>
-      <c r="S109" s="17">
+      <c r="S109" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29495,13 +29638,13 @@
       <c r="E110" t="s">
         <v>50</v>
       </c>
-      <c r="F110" s="15">
-        <v>2</v>
-      </c>
-      <c r="G110" s="15">
-        <v>1</v>
-      </c>
-      <c r="H110" s="15">
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
         <v>3</v>
       </c>
       <c r="L110" t="str">
@@ -29523,7 +29666,7 @@
       <c r="R110">
         <v>6</v>
       </c>
-      <c r="S110" s="17">
+      <c r="S110" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29532,11 +29675,10 @@
       <c r="E111" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="15">
-        <v>1</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="H111">
         <v>1</v>
       </c>
       <c r="L111" t="str">
@@ -29561,7 +29703,7 @@
       <c r="R111">
         <v>3</v>
       </c>
-      <c r="S111" s="17">
+      <c r="S111" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -29573,13 +29715,13 @@
       <c r="E112" t="s">
         <v>49</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F112">
         <v>5</v>
       </c>
-      <c r="G112" s="15">
-        <v>2</v>
-      </c>
-      <c r="H112" s="15">
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
         <v>7</v>
       </c>
       <c r="L112" t="str">
@@ -29601,7 +29743,7 @@
       <c r="R112">
         <v>1</v>
       </c>
-      <c r="S112" s="17">
+      <c r="S112" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29610,13 +29752,13 @@
       <c r="E113" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="15">
-        <v>1</v>
-      </c>
-      <c r="G113" s="15">
-        <v>2</v>
-      </c>
-      <c r="H113" s="15">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+      <c r="H113">
         <v>3</v>
       </c>
       <c r="L113" t="str">
@@ -29641,7 +29783,7 @@
       <c r="R113">
         <v>7</v>
       </c>
-      <c r="S113" s="17">
+      <c r="S113" s="13">
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
@@ -29650,13 +29792,13 @@
       <c r="E114" t="s">
         <v>51</v>
       </c>
-      <c r="F114" s="15">
-        <v>2</v>
-      </c>
-      <c r="G114" s="15">
-        <v>1</v>
-      </c>
-      <c r="H114" s="15">
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
         <v>3</v>
       </c>
       <c r="L114" t="str">
@@ -29681,7 +29823,7 @@
       <c r="R114">
         <v>3</v>
       </c>
-      <c r="S114" s="17">
+      <c r="S114" s="13">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
@@ -29690,11 +29832,10 @@
       <c r="E115" t="s">
         <v>47</v>
       </c>
-      <c r="F115" s="15">
-        <v>1</v>
-      </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="H115">
         <v>1</v>
       </c>
       <c r="L115" t="str">
@@ -29719,7 +29860,7 @@
       <c r="R115">
         <v>3</v>
       </c>
-      <c r="S115" s="17">
+      <c r="S115" s="13">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
@@ -29728,11 +29869,10 @@
       <c r="E116" t="s">
         <v>48</v>
       </c>
-      <c r="F116" s="15">
-        <v>1</v>
-      </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="H116">
         <v>1</v>
       </c>
       <c r="L116" t="str">
@@ -29754,7 +29894,7 @@
       <c r="R116">
         <v>1</v>
       </c>
-      <c r="S116" s="17">
+      <c r="S116" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29766,11 +29906,10 @@
       <c r="E117" t="s">
         <v>49</v>
       </c>
-      <c r="F117" s="15">
-        <v>1</v>
-      </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117">
         <v>1</v>
       </c>
       <c r="L117" t="str">
@@ -29792,7 +29931,7 @@
       <c r="R117">
         <v>1</v>
       </c>
-      <c r="S117" s="17">
+      <c r="S117" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29801,13 +29940,13 @@
       <c r="E118" t="s">
         <v>50</v>
       </c>
-      <c r="F118" s="15">
-        <v>1</v>
-      </c>
-      <c r="G118" s="15">
-        <v>1</v>
-      </c>
-      <c r="H118" s="15">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
         <v>2</v>
       </c>
       <c r="L118" t="str">
@@ -29829,7 +29968,7 @@
       <c r="R118">
         <v>1</v>
       </c>
-      <c r="S118" s="17">
+      <c r="S118" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29838,11 +29977,10 @@
       <c r="E119" t="s">
         <v>48</v>
       </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15">
-        <v>2</v>
-      </c>
-      <c r="H119" s="15">
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
         <v>2</v>
       </c>
       <c r="L119" t="str">
@@ -29867,7 +30005,7 @@
       <c r="R119">
         <v>2</v>
       </c>
-      <c r="S119" s="17">
+      <c r="S119" s="13">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -29879,11 +30017,10 @@
       <c r="E120" t="s">
         <v>50</v>
       </c>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15">
-        <v>1</v>
-      </c>
-      <c r="H120" s="15">
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
         <v>1</v>
       </c>
       <c r="L120" t="str">
@@ -29905,7 +30042,7 @@
       <c r="R120">
         <v>2</v>
       </c>
-      <c r="S120" s="17">
+      <c r="S120" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -29917,13 +30054,13 @@
       <c r="E121" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="15">
-        <v>1</v>
-      </c>
-      <c r="G121" s="15">
-        <v>1</v>
-      </c>
-      <c r="H121" s="15">
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
         <v>2</v>
       </c>
       <c r="L121" t="str">
@@ -29945,7 +30082,7 @@
       <c r="R121">
         <v>1</v>
       </c>
-      <c r="S121" s="17">
+      <c r="S121" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -29954,13 +30091,13 @@
       <c r="E122" t="s">
         <v>49</v>
       </c>
-      <c r="F122" s="15">
+      <c r="F122">
         <v>34</v>
       </c>
-      <c r="G122" s="15">
+      <c r="G122">
         <v>12</v>
       </c>
-      <c r="H122" s="15">
+      <c r="H122">
         <v>46</v>
       </c>
       <c r="L122" t="str">
@@ -29985,7 +30122,7 @@
       <c r="R122">
         <v>2</v>
       </c>
-      <c r="S122" s="17">
+      <c r="S122" s="13">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -29994,13 +30131,13 @@
       <c r="E123" t="s">
         <v>50</v>
       </c>
-      <c r="F123" s="15">
+      <c r="F123">
         <v>27</v>
       </c>
-      <c r="G123" s="15">
+      <c r="G123">
         <v>8</v>
       </c>
-      <c r="H123" s="15">
+      <c r="H123">
         <v>35</v>
       </c>
       <c r="L123" t="str">
@@ -30025,7 +30162,7 @@
       <c r="R123">
         <v>46</v>
       </c>
-      <c r="S123" s="17">
+      <c r="S123" s="13">
         <f t="shared" si="3"/>
         <v>0.2608695652173913</v>
       </c>
@@ -30034,13 +30171,13 @@
       <c r="E124" t="s">
         <v>51</v>
       </c>
-      <c r="F124" s="15">
+      <c r="F124">
         <v>17</v>
       </c>
-      <c r="G124" s="15">
+      <c r="G124">
         <v>7</v>
       </c>
-      <c r="H124" s="15">
+      <c r="H124">
         <v>24</v>
       </c>
       <c r="L124" t="str">
@@ -30065,7 +30202,7 @@
       <c r="R124">
         <v>35</v>
       </c>
-      <c r="S124" s="17">
+      <c r="S124" s="13">
         <f t="shared" si="3"/>
         <v>0.22857142857142856</v>
       </c>
@@ -30074,13 +30211,13 @@
       <c r="E125" t="s">
         <v>52</v>
       </c>
-      <c r="F125" s="15">
+      <c r="F125">
         <v>4</v>
       </c>
-      <c r="G125" s="15">
-        <v>1</v>
-      </c>
-      <c r="H125" s="15">
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
         <v>5</v>
       </c>
       <c r="L125" t="str">
@@ -30105,7 +30242,7 @@
       <c r="R125">
         <v>24</v>
       </c>
-      <c r="S125" s="17">
+      <c r="S125" s="13">
         <f t="shared" si="3"/>
         <v>0.29166666666666669</v>
       </c>
@@ -30114,13 +30251,13 @@
       <c r="E126" t="s">
         <v>47</v>
       </c>
-      <c r="F126" s="15">
+      <c r="F126">
         <v>3</v>
       </c>
-      <c r="G126" s="15">
-        <v>2</v>
-      </c>
-      <c r="H126" s="15">
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
         <v>5</v>
       </c>
       <c r="L126" t="str">
@@ -30145,7 +30282,7 @@
       <c r="R126">
         <v>5</v>
       </c>
-      <c r="S126" s="17">
+      <c r="S126" s="13">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
@@ -30154,13 +30291,13 @@
       <c r="E127" t="s">
         <v>48</v>
       </c>
-      <c r="F127" s="15">
+      <c r="F127">
         <v>12</v>
       </c>
-      <c r="G127" s="15">
+      <c r="G127">
         <v>5</v>
       </c>
-      <c r="H127" s="15">
+      <c r="H127">
         <v>17</v>
       </c>
       <c r="L127" t="str">
@@ -30185,7 +30322,7 @@
       <c r="R127">
         <v>5</v>
       </c>
-      <c r="S127" s="17">
+      <c r="S127" s="13">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
@@ -30200,11 +30337,10 @@
       <c r="E128" t="s">
         <v>49</v>
       </c>
-      <c r="F128" s="15">
-        <v>1</v>
-      </c>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="H128">
         <v>1</v>
       </c>
       <c r="L128" t="str">
@@ -30229,7 +30365,7 @@
       <c r="R128">
         <v>17</v>
       </c>
-      <c r="S128" s="17">
+      <c r="S128" s="13">
         <f t="shared" si="3"/>
         <v>0.29411764705882354</v>
       </c>
@@ -30241,11 +30377,10 @@
       <c r="E129" t="s">
         <v>48</v>
       </c>
-      <c r="F129" s="15">
-        <v>1</v>
-      </c>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="H129">
         <v>1</v>
       </c>
       <c r="L129" t="str">
@@ -30267,7 +30402,7 @@
       <c r="R129">
         <v>1</v>
       </c>
-      <c r="S129" s="17">
+      <c r="S129" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30282,11 +30417,10 @@
       <c r="E130" t="s">
         <v>49</v>
       </c>
-      <c r="F130" s="15">
-        <v>1</v>
-      </c>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15">
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="H130">
         <v>1</v>
       </c>
       <c r="L130" t="str">
@@ -30308,7 +30442,7 @@
       <c r="R130">
         <v>1</v>
       </c>
-      <c r="S130" s="17">
+      <c r="S130" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30320,13 +30454,13 @@
       <c r="E131" t="s">
         <v>49</v>
       </c>
-      <c r="F131" s="15">
+      <c r="F131">
         <v>3</v>
       </c>
-      <c r="G131" s="15">
-        <v>1</v>
-      </c>
-      <c r="H131" s="15">
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
         <v>4</v>
       </c>
       <c r="L131" t="str">
@@ -30348,7 +30482,7 @@
       <c r="R131">
         <v>1</v>
       </c>
-      <c r="S131" s="17">
+      <c r="S131" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30357,13 +30491,13 @@
       <c r="E132" t="s">
         <v>48</v>
       </c>
-      <c r="F132" s="15">
+      <c r="F132">
         <v>3</v>
       </c>
-      <c r="G132" s="15">
-        <v>1</v>
-      </c>
-      <c r="H132" s="15">
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
         <v>4</v>
       </c>
       <c r="L132" t="str">
@@ -30388,7 +30522,7 @@
       <c r="R132">
         <v>4</v>
       </c>
-      <c r="S132" s="17">
+      <c r="S132" s="13">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
@@ -30400,11 +30534,10 @@
       <c r="E133" t="s">
         <v>49</v>
       </c>
-      <c r="F133" s="15">
-        <v>1</v>
-      </c>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="H133">
         <v>1</v>
       </c>
       <c r="L133" t="str">
@@ -30429,7 +30562,7 @@
       <c r="R133">
         <v>4</v>
       </c>
-      <c r="S133" s="17">
+      <c r="S133" s="13">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
@@ -30444,11 +30577,10 @@
       <c r="E134" t="s">
         <v>52</v>
       </c>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15">
-        <v>2</v>
-      </c>
-      <c r="H134" s="15">
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
         <v>2</v>
       </c>
       <c r="L134" t="str">
@@ -30470,7 +30602,7 @@
       <c r="R134">
         <v>1</v>
       </c>
-      <c r="S134" s="17">
+      <c r="S134" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -30482,13 +30614,13 @@
       <c r="E135" t="s">
         <v>50</v>
       </c>
-      <c r="F135" s="15">
-        <v>1</v>
-      </c>
-      <c r="G135" s="15">
-        <v>1</v>
-      </c>
-      <c r="H135" s="15">
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
         <v>2</v>
       </c>
       <c r="L135" t="str">
@@ -30510,7 +30642,7 @@
       <c r="R135">
         <v>2</v>
       </c>
-      <c r="S135" s="17">
+      <c r="S135" s="13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -30522,11 +30654,10 @@
       <c r="E136" t="s">
         <v>49</v>
       </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15">
-        <v>1</v>
-      </c>
-      <c r="H136" s="15">
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
         <v>1</v>
       </c>
       <c r="L136" t="str">
@@ -30551,7 +30682,7 @@
       <c r="R136">
         <v>2</v>
       </c>
-      <c r="S136" s="17">
+      <c r="S136" s="13">
         <f t="shared" ref="S136:S177" si="5">Q136/R136</f>
         <v>0.5</v>
       </c>
@@ -30563,11 +30694,10 @@
       <c r="E137" t="s">
         <v>51</v>
       </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15">
-        <v>1</v>
-      </c>
-      <c r="H137" s="15">
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
         <v>1</v>
       </c>
       <c r="L137" t="str">
@@ -30589,7 +30719,7 @@
       <c r="R137">
         <v>1</v>
       </c>
-      <c r="S137" s="17">
+      <c r="S137" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -30601,11 +30731,10 @@
       <c r="E138" t="s">
         <v>51</v>
       </c>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15">
-        <v>1</v>
-      </c>
-      <c r="H138" s="15">
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
         <v>1</v>
       </c>
       <c r="L138" t="str">
@@ -30627,7 +30756,7 @@
       <c r="R138">
         <v>1</v>
       </c>
-      <c r="S138" s="17">
+      <c r="S138" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -30639,13 +30768,13 @@
       <c r="E139" t="s">
         <v>49</v>
       </c>
-      <c r="F139" s="15">
-        <v>1</v>
-      </c>
-      <c r="G139" s="15">
-        <v>1</v>
-      </c>
-      <c r="H139" s="15">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
         <v>2</v>
       </c>
       <c r="L139" t="str">
@@ -30667,7 +30796,7 @@
       <c r="R139">
         <v>1</v>
       </c>
-      <c r="S139" s="17">
+      <c r="S139" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -30676,11 +30805,10 @@
       <c r="E140" t="s">
         <v>50</v>
       </c>
-      <c r="F140" s="15">
-        <v>1</v>
-      </c>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15">
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="H140">
         <v>1</v>
       </c>
       <c r="L140" t="str">
@@ -30705,7 +30833,7 @@
       <c r="R140">
         <v>2</v>
       </c>
-      <c r="S140" s="17">
+      <c r="S140" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -30714,11 +30842,10 @@
       <c r="E141" t="s">
         <v>51</v>
       </c>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15">
-        <v>1</v>
-      </c>
-      <c r="H141" s="15">
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
         <v>1</v>
       </c>
       <c r="L141" t="str">
@@ -30740,7 +30867,7 @@
       <c r="R141">
         <v>1</v>
       </c>
-      <c r="S141" s="17">
+      <c r="S141" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -30749,13 +30876,13 @@
       <c r="E142" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="15">
-        <v>2</v>
-      </c>
-      <c r="G142" s="15">
-        <v>2</v>
-      </c>
-      <c r="H142" s="15">
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
         <v>4</v>
       </c>
       <c r="L142" t="str">
@@ -30777,7 +30904,7 @@
       <c r="R142">
         <v>1</v>
       </c>
-      <c r="S142" s="17">
+      <c r="S142" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -30789,11 +30916,10 @@
       <c r="E143" t="s">
         <v>49</v>
       </c>
-      <c r="F143" s="15">
-        <v>1</v>
-      </c>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15">
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="H143">
         <v>1</v>
       </c>
       <c r="L143" t="str">
@@ -30818,7 +30944,7 @@
       <c r="R143">
         <v>4</v>
       </c>
-      <c r="S143" s="17">
+      <c r="S143" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -30833,11 +30959,10 @@
       <c r="E144" t="s">
         <v>49</v>
       </c>
-      <c r="F144" s="15">
-        <v>1</v>
-      </c>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15">
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="H144">
         <v>1</v>
       </c>
       <c r="L144" t="str">
@@ -30859,7 +30984,7 @@
       <c r="R144">
         <v>1</v>
       </c>
-      <c r="S144" s="17">
+      <c r="S144" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -30871,11 +30996,10 @@
       <c r="E145" t="s">
         <v>50</v>
       </c>
-      <c r="F145" s="15">
-        <v>1</v>
-      </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="H145">
         <v>1</v>
       </c>
       <c r="L145" t="str">
@@ -30897,7 +31021,7 @@
       <c r="R145">
         <v>1</v>
       </c>
-      <c r="S145" s="17">
+      <c r="S145" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -30912,11 +31036,10 @@
       <c r="E146" t="s">
         <v>48</v>
       </c>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15">
-        <v>2</v>
-      </c>
-      <c r="H146" s="15">
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
         <v>2</v>
       </c>
       <c r="L146" t="str">
@@ -30938,7 +31061,7 @@
       <c r="R146">
         <v>1</v>
       </c>
-      <c r="S146" s="17">
+      <c r="S146" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -30950,11 +31073,10 @@
       <c r="E147" t="s">
         <v>53</v>
       </c>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15">
-        <v>1</v>
-      </c>
-      <c r="H147" s="15">
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
         <v>1</v>
       </c>
       <c r="L147" t="str">
@@ -30976,7 +31098,7 @@
       <c r="R147">
         <v>2</v>
       </c>
-      <c r="S147" s="17">
+      <c r="S147" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -30985,11 +31107,10 @@
       <c r="E148" t="s">
         <v>49</v>
       </c>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15">
-        <v>1</v>
-      </c>
-      <c r="H148" s="15">
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
         <v>1</v>
       </c>
       <c r="L148" t="str">
@@ -31011,7 +31132,7 @@
       <c r="R148">
         <v>1</v>
       </c>
-      <c r="S148" s="17">
+      <c r="S148" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31023,11 +31144,10 @@
       <c r="E149" t="s">
         <v>53</v>
       </c>
-      <c r="F149" s="15">
-        <v>1</v>
-      </c>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15">
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="H149">
         <v>1</v>
       </c>
       <c r="L149" t="str">
@@ -31049,7 +31169,7 @@
       <c r="R149">
         <v>1</v>
       </c>
-      <c r="S149" s="17">
+      <c r="S149" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31061,11 +31181,10 @@
       <c r="E150" t="s">
         <v>49</v>
       </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15">
-        <v>1</v>
-      </c>
-      <c r="H150" s="15">
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
         <v>1</v>
       </c>
       <c r="L150" t="str">
@@ -31087,7 +31206,7 @@
       <c r="R150">
         <v>1</v>
       </c>
-      <c r="S150" s="17">
+      <c r="S150" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -31099,13 +31218,13 @@
       <c r="E151" t="s">
         <v>53</v>
       </c>
-      <c r="F151" s="15">
+      <c r="F151">
         <v>14</v>
       </c>
-      <c r="G151" s="15">
-        <v>2</v>
-      </c>
-      <c r="H151" s="15">
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
         <v>16</v>
       </c>
       <c r="L151" t="str">
@@ -31127,7 +31246,7 @@
       <c r="R151">
         <v>1</v>
       </c>
-      <c r="S151" s="17">
+      <c r="S151" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31136,13 +31255,13 @@
       <c r="E152" t="s">
         <v>49</v>
       </c>
-      <c r="F152" s="15">
-        <v>1</v>
-      </c>
-      <c r="G152" s="15">
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
         <v>5</v>
       </c>
-      <c r="H152" s="15">
+      <c r="H152">
         <v>6</v>
       </c>
       <c r="L152" t="str">
@@ -31167,7 +31286,7 @@
       <c r="R152">
         <v>16</v>
       </c>
-      <c r="S152" s="17">
+      <c r="S152" s="13">
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
@@ -31176,13 +31295,13 @@
       <c r="E153" t="s">
         <v>47</v>
       </c>
-      <c r="F153" s="15">
+      <c r="F153">
         <v>12</v>
       </c>
-      <c r="G153" s="15">
+      <c r="G153">
         <v>5</v>
       </c>
-      <c r="H153" s="15">
+      <c r="H153">
         <v>17</v>
       </c>
       <c r="L153" t="str">
@@ -31207,7 +31326,7 @@
       <c r="R153">
         <v>6</v>
       </c>
-      <c r="S153" s="17">
+      <c r="S153" s="13">
         <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
@@ -31216,13 +31335,13 @@
       <c r="E154" t="s">
         <v>48</v>
       </c>
-      <c r="F154" s="15">
+      <c r="F154">
         <v>3</v>
       </c>
-      <c r="G154" s="15">
+      <c r="G154">
         <v>5</v>
       </c>
-      <c r="H154" s="15">
+      <c r="H154">
         <v>8</v>
       </c>
       <c r="L154" t="str">
@@ -31247,7 +31366,7 @@
       <c r="R154">
         <v>17</v>
       </c>
-      <c r="S154" s="17">
+      <c r="S154" s="13">
         <f t="shared" si="5"/>
         <v>0.29411764705882354</v>
       </c>
@@ -31259,13 +31378,13 @@
       <c r="E155" t="s">
         <v>53</v>
       </c>
-      <c r="F155" s="15">
-        <v>1</v>
-      </c>
-      <c r="G155" s="15">
-        <v>1</v>
-      </c>
-      <c r="H155" s="15">
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
         <v>2</v>
       </c>
       <c r="L155" t="str">
@@ -31290,7 +31409,7 @@
       <c r="R155">
         <v>8</v>
       </c>
-      <c r="S155" s="17">
+      <c r="S155" s="13">
         <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
@@ -31305,11 +31424,10 @@
       <c r="E156" t="s">
         <v>50</v>
       </c>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15">
-        <v>1</v>
-      </c>
-      <c r="H156" s="15">
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
         <v>1</v>
       </c>
       <c r="L156" t="str">
@@ -31334,7 +31452,7 @@
       <c r="R156">
         <v>2</v>
       </c>
-      <c r="S156" s="17">
+      <c r="S156" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -31346,13 +31464,13 @@
       <c r="E157" t="s">
         <v>51</v>
       </c>
-      <c r="F157" s="15">
+      <c r="F157">
         <v>3</v>
       </c>
-      <c r="G157" s="15">
-        <v>2</v>
-      </c>
-      <c r="H157" s="15">
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
         <v>5</v>
       </c>
       <c r="L157" t="str">
@@ -31374,7 +31492,7 @@
       <c r="R157">
         <v>1</v>
       </c>
-      <c r="S157" s="17">
+      <c r="S157" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31383,13 +31501,13 @@
       <c r="E158" t="s">
         <v>52</v>
       </c>
-      <c r="F158" s="15">
-        <v>1</v>
-      </c>
-      <c r="G158" s="15">
-        <v>1</v>
-      </c>
-      <c r="H158" s="15">
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
         <v>2</v>
       </c>
       <c r="L158" t="str">
@@ -31414,7 +31532,7 @@
       <c r="R158">
         <v>5</v>
       </c>
-      <c r="S158" s="17">
+      <c r="S158" s="13">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
@@ -31423,11 +31541,10 @@
       <c r="E159" t="s">
         <v>48</v>
       </c>
-      <c r="F159" s="15">
-        <v>1</v>
-      </c>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15">
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="H159">
         <v>1</v>
       </c>
       <c r="L159" t="str">
@@ -31452,7 +31569,7 @@
       <c r="R159">
         <v>2</v>
       </c>
-      <c r="S159" s="17">
+      <c r="S159" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -31464,13 +31581,13 @@
       <c r="E160" t="s">
         <v>50</v>
       </c>
-      <c r="F160" s="15">
+      <c r="F160">
         <v>3</v>
       </c>
-      <c r="G160" s="15">
-        <v>2</v>
-      </c>
-      <c r="H160" s="15">
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
         <v>5</v>
       </c>
       <c r="L160" t="str">
@@ -31492,7 +31609,7 @@
       <c r="R160">
         <v>1</v>
       </c>
-      <c r="S160" s="17">
+      <c r="S160" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -31501,13 +31618,13 @@
       <c r="E161" t="s">
         <v>51</v>
       </c>
-      <c r="F161" s="15">
+      <c r="F161">
         <v>6</v>
       </c>
-      <c r="G161" s="15">
+      <c r="G161">
         <v>5</v>
       </c>
-      <c r="H161" s="15">
+      <c r="H161">
         <v>11</v>
       </c>
       <c r="L161" t="str">
@@ -31532,7 +31649,7 @@
       <c r="R161">
         <v>5</v>
       </c>
-      <c r="S161" s="17">
+      <c r="S161" s="13">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
@@ -31541,13 +31658,13 @@
       <c r="E162" t="s">
         <v>52</v>
       </c>
-      <c r="F162" s="15">
+      <c r="F162">
         <v>6</v>
       </c>
-      <c r="G162" s="15">
-        <v>2</v>
-      </c>
-      <c r="H162" s="15">
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
         <v>8</v>
       </c>
       <c r="L162" t="str">
@@ -31572,7 +31689,7 @@
       <c r="R162">
         <v>11</v>
       </c>
-      <c r="S162" s="17">
+      <c r="S162" s="13">
         <f t="shared" si="5"/>
         <v>0.45454545454545453</v>
       </c>
@@ -31584,11 +31701,10 @@
       <c r="E163" t="s">
         <v>50</v>
       </c>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15">
-        <v>1</v>
-      </c>
-      <c r="H163" s="15">
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
         <v>1</v>
       </c>
       <c r="L163" t="str">
@@ -31613,7 +31729,7 @@
       <c r="R163">
         <v>8</v>
       </c>
-      <c r="S163" s="17">
+      <c r="S163" s="13">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
@@ -31628,11 +31744,10 @@
       <c r="E164" t="s">
         <v>49</v>
       </c>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15">
-        <v>2</v>
-      </c>
-      <c r="H164" s="15">
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164">
         <v>2</v>
       </c>
       <c r="L164" t="str">
@@ -31654,7 +31769,7 @@
       <c r="R164">
         <v>1</v>
       </c>
-      <c r="S164" s="17">
+      <c r="S164" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31663,11 +31778,10 @@
       <c r="E165" t="s">
         <v>50</v>
       </c>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15">
-        <v>1</v>
-      </c>
-      <c r="H165" s="15">
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
         <v>1</v>
       </c>
       <c r="L165" t="str">
@@ -31689,7 +31803,7 @@
       <c r="R165">
         <v>2</v>
       </c>
-      <c r="S165" s="17">
+      <c r="S165" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31701,13 +31815,13 @@
       <c r="E166" t="s">
         <v>50</v>
       </c>
-      <c r="F166" s="15">
-        <v>1</v>
-      </c>
-      <c r="G166" s="15">
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
         <v>3</v>
       </c>
-      <c r="H166" s="15">
+      <c r="H166">
         <v>4</v>
       </c>
       <c r="L166" t="str">
@@ -31729,7 +31843,7 @@
       <c r="R166">
         <v>1</v>
       </c>
-      <c r="S166" s="17">
+      <c r="S166" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31738,11 +31852,10 @@
       <c r="E167" t="s">
         <v>51</v>
       </c>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15">
-        <v>1</v>
-      </c>
-      <c r="H167" s="15">
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
         <v>1</v>
       </c>
       <c r="L167" t="str">
@@ -31767,7 +31880,7 @@
       <c r="R167">
         <v>4</v>
       </c>
-      <c r="S167" s="17">
+      <c r="S167" s="13">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
@@ -31782,11 +31895,10 @@
       <c r="E168" t="s">
         <v>50</v>
       </c>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15">
-        <v>2</v>
-      </c>
-      <c r="H168" s="15">
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
         <v>2</v>
       </c>
       <c r="L168" t="str">
@@ -31808,7 +31920,7 @@
       <c r="R168">
         <v>1</v>
       </c>
-      <c r="S168" s="17">
+      <c r="S168" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31817,11 +31929,10 @@
       <c r="E169" t="s">
         <v>51</v>
       </c>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15">
-        <v>1</v>
-      </c>
-      <c r="H169" s="15">
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
         <v>1</v>
       </c>
       <c r="L169" t="str">
@@ -31843,7 +31954,7 @@
       <c r="R169">
         <v>2</v>
       </c>
-      <c r="S169" s="17">
+      <c r="S169" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31855,11 +31966,10 @@
       <c r="E170" t="s">
         <v>51</v>
       </c>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15">
-        <v>2</v>
-      </c>
-      <c r="H170" s="15">
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
         <v>2</v>
       </c>
       <c r="L170" t="str">
@@ -31881,7 +31991,7 @@
       <c r="R170">
         <v>1</v>
       </c>
-      <c r="S170" s="17">
+      <c r="S170" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31890,11 +32000,10 @@
       <c r="E171" t="s">
         <v>52</v>
       </c>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15">
+      <c r="G171">
         <v>3</v>
       </c>
-      <c r="H171" s="15">
+      <c r="H171">
         <v>3</v>
       </c>
       <c r="L171" t="str">
@@ -31916,7 +32025,7 @@
       <c r="R171">
         <v>2</v>
       </c>
-      <c r="S171" s="17">
+      <c r="S171" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31931,13 +32040,13 @@
       <c r="E172" t="s">
         <v>52</v>
       </c>
-      <c r="F172" s="15">
-        <v>1</v>
-      </c>
-      <c r="G172" s="15">
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
         <v>3</v>
       </c>
-      <c r="H172" s="15">
+      <c r="H172">
         <v>4</v>
       </c>
       <c r="L172" t="str">
@@ -31959,7 +32068,7 @@
       <c r="R172">
         <v>3</v>
       </c>
-      <c r="S172" s="17">
+      <c r="S172" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -31974,11 +32083,10 @@
       <c r="E173" t="s">
         <v>51</v>
       </c>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15">
-        <v>1</v>
-      </c>
-      <c r="H173" s="15">
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
         <v>1</v>
       </c>
       <c r="L173" t="str">
@@ -32003,7 +32111,7 @@
       <c r="R173">
         <v>4</v>
       </c>
-      <c r="S173" s="17">
+      <c r="S173" s="13">
         <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
@@ -32015,11 +32123,10 @@
       <c r="E174" t="s">
         <v>48</v>
       </c>
-      <c r="F174" s="15">
-        <v>1</v>
-      </c>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15">
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="H174">
         <v>1</v>
       </c>
       <c r="L174" t="str">
@@ -32041,7 +32148,7 @@
       <c r="R174">
         <v>1</v>
       </c>
-      <c r="S174" s="17">
+      <c r="S174" s="13">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -32053,13 +32160,13 @@
       <c r="E175" t="s">
         <v>48</v>
       </c>
-      <c r="F175" s="15">
-        <v>1</v>
-      </c>
-      <c r="G175" s="15">
-        <v>1</v>
-      </c>
-      <c r="H175" s="15">
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
         <v>2</v>
       </c>
       <c r="L175" t="str">
@@ -32081,7 +32188,7 @@
       <c r="R175">
         <v>1</v>
       </c>
-      <c r="S175" s="17">
+      <c r="S175" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -32090,13 +32197,13 @@
       <c r="C176" t="s">
         <v>78</v>
       </c>
-      <c r="F176" s="15">
+      <c r="F176">
         <v>444</v>
       </c>
-      <c r="G176" s="15">
+      <c r="G176">
         <v>418</v>
       </c>
-      <c r="H176" s="15">
+      <c r="H176">
         <v>862</v>
       </c>
       <c r="L176" t="str">
@@ -32121,7 +32228,7 @@
       <c r="R176">
         <v>2</v>
       </c>
-      <c r="S176" s="17">
+      <c r="S176" s="13">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -32143,7 +32250,7 @@
       <c r="R177">
         <v>862</v>
       </c>
-      <c r="S177" s="17">
+      <c r="S177" s="13">
         <f t="shared" si="5"/>
         <v>0.48491879350348027</v>
       </c>
